--- a/Manage/upload_file/最新 寝室名单数据.xlsx
+++ b/Manage/upload_file/最新 寝室名单数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19200" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="JSON" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="809">
   <si>
     <t>3#110</t>
   </si>
@@ -2448,10 +2448,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2483,22 +2483,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2512,22 +2504,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2548,47 +2532,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2610,11 +2555,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2633,10 +2616,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2672,108 +2672,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2786,7 +2684,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2798,19 +2816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2822,25 +2834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2907,6 +2907,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2967,165 +2978,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -3596,11 +3596,14 @@
   <sheetPr/>
   <dimension ref="A1:C882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A864" workbookViewId="0">
-      <selection activeCell="E876" sqref="E876"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="C361" sqref="C361:C882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -7573,4172 +7576,5735 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:3">
       <c r="A362" s="11" t="s">
         <v>296</v>
       </c>
       <c r="B362" s="12" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="363" spans="1:2">
+      <c r="C362" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
       <c r="A363" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B363" s="12" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="364" ht="28.5" spans="1:2">
+      <c r="C363" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" ht="28.5" spans="1:3">
       <c r="A364" s="11" t="s">
         <v>299</v>
       </c>
       <c r="B364" s="12" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="365" ht="28.5" spans="1:2">
+      <c r="C364" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" ht="28.5" spans="1:3">
       <c r="A365" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B365" s="12" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="366" ht="28.5" spans="1:2">
+      <c r="C365" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" ht="28.5" spans="1:3">
       <c r="A366" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B366" s="12" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="367" ht="28.5" spans="1:2">
+      <c r="C366" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" ht="28.5" spans="1:3">
       <c r="A367" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B367" s="12" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="368" ht="28.5" spans="1:2">
+      <c r="C367" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" ht="28.5" spans="1:3">
       <c r="A368" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B368" s="12" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="369" ht="28.5" spans="1:2">
+      <c r="C368" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" ht="28.5" spans="1:3">
       <c r="A369" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B369" s="12" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="370" ht="28.5" spans="1:2">
+      <c r="C369" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" ht="28.5" spans="1:3">
       <c r="A370" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B370" s="12" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="371" ht="28.5" spans="1:2">
+      <c r="C370" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" ht="28.5" spans="1:3">
       <c r="A371" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B371" s="12" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="372" ht="28.5" spans="1:2">
+      <c r="C371" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" ht="28.5" spans="1:3">
       <c r="A372" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B372" s="12" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="373" ht="28.5" spans="1:2">
+      <c r="C372" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" ht="28.5" spans="1:3">
       <c r="A373" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B373" s="12" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="374" ht="28.5" spans="1:2">
+      <c r="C373" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" ht="28.5" spans="1:3">
       <c r="A374" s="7" t="s">
         <v>311</v>
       </c>
       <c r="B374" s="12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="375" ht="28.5" spans="1:2">
+      <c r="C374" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" ht="28.5" spans="1:3">
       <c r="A375" s="7" t="s">
         <v>311</v>
       </c>
       <c r="B375" s="12" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="376" ht="28.5" spans="1:2">
+      <c r="C375" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" ht="28.5" spans="1:3">
       <c r="A376" s="7" t="s">
         <v>311</v>
       </c>
       <c r="B376" s="12" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="377" ht="28.5" spans="1:2">
+      <c r="C376" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" ht="28.5" spans="1:3">
       <c r="A377" s="7" t="s">
         <v>311</v>
       </c>
       <c r="B377" s="12" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="378" ht="28.5" spans="1:2">
+      <c r="C377" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" ht="28.5" spans="1:3">
       <c r="A378" s="7" t="s">
         <v>311</v>
       </c>
       <c r="B378" s="12" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="379" ht="28.5" spans="1:2">
+      <c r="C378" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" ht="28.5" spans="1:3">
       <c r="A379" s="7" t="s">
         <v>311</v>
       </c>
       <c r="B379" s="12" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="380" ht="28.5" spans="1:2">
+      <c r="C379" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" ht="28.5" spans="1:3">
       <c r="A380" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B380" s="12" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="381" ht="28.5" spans="1:2">
+      <c r="C380" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" ht="28.5" spans="1:3">
       <c r="A381" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B381" s="12" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="382" ht="28.5" spans="1:2">
+      <c r="C381" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" ht="28.5" spans="1:3">
       <c r="A382" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B382" s="12" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="383" ht="28.5" spans="1:2">
+      <c r="C382" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" ht="28.5" spans="1:3">
       <c r="A383" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B383" s="12" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="384" ht="28.5" spans="1:2">
+      <c r="C383" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" ht="28.5" spans="1:3">
       <c r="A384" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B384" s="12" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="385" ht="28.5" spans="1:2">
+      <c r="C384" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" ht="28.5" spans="1:3">
       <c r="A385" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B385" s="12" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="386" ht="28.5" spans="1:2">
+      <c r="C385" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" ht="28.5" spans="1:3">
       <c r="A386" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B386" s="12" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="387" ht="28.5" spans="1:2">
+      <c r="C386" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" ht="28.5" spans="1:3">
       <c r="A387" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B387" s="12" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="388" ht="28.5" spans="1:2">
+      <c r="C387" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" ht="28.5" spans="1:3">
       <c r="A388" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B388" s="12" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="389" ht="28.5" spans="1:2">
+      <c r="C388" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" ht="28.5" spans="1:3">
       <c r="A389" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B389" s="12" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="390" ht="28.5" spans="1:2">
+      <c r="C389" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" ht="28.5" spans="1:3">
       <c r="A390" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B390" s="12" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="391" ht="28.5" spans="1:2">
+      <c r="C390" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" ht="28.5" spans="1:3">
       <c r="A391" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B391" s="12" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="392" ht="28.5" spans="1:2">
+      <c r="C391" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" ht="28.5" spans="1:3">
       <c r="A392" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B392" s="12" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="393" ht="28.5" spans="1:2">
+      <c r="C392" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" ht="28.5" spans="1:3">
       <c r="A393" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B393" s="12" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="394" ht="28.5" spans="1:2">
+      <c r="C393" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" ht="28.5" spans="1:3">
       <c r="A394" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B394" s="12" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="395" ht="28.5" spans="1:2">
+      <c r="C394" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" ht="28.5" spans="1:3">
       <c r="A395" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B395" s="12" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="396" ht="28.5" spans="1:2">
+      <c r="C395" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" ht="28.5" spans="1:3">
       <c r="A396" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B396" s="12" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="397" ht="28.5" spans="1:2">
+      <c r="C396" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" ht="28.5" spans="1:3">
       <c r="A397" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B397" s="12" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="398" ht="28.5" spans="1:2">
+      <c r="C397" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" ht="28.5" spans="1:3">
       <c r="A398" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B398" s="12" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="399" ht="28.5" spans="1:2">
+      <c r="C398" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" ht="28.5" spans="1:3">
       <c r="A399" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B399" s="12" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="400" ht="28.5" spans="1:2">
+      <c r="C399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" ht="28.5" spans="1:3">
       <c r="A400" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B400" s="12" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="401" ht="28.5" spans="1:2">
+      <c r="C400" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" ht="28.5" spans="1:3">
       <c r="A401" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B401" s="12" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="402" ht="28.5" spans="1:2">
+      <c r="C401" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" ht="28.5" spans="1:3">
       <c r="A402" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B402" s="12" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="403" ht="28.5" spans="1:2">
+      <c r="C402" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" ht="28.5" spans="1:3">
       <c r="A403" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B403" s="12" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="404" ht="28.5" spans="1:2">
+      <c r="C403" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" ht="28.5" spans="1:3">
       <c r="A404" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B404" s="12" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="405" ht="28.5" spans="1:2">
+      <c r="C404" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" ht="28.5" spans="1:3">
       <c r="A405" s="11" t="s">
         <v>348</v>
       </c>
       <c r="B405" s="12" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="406" spans="1:2">
+      <c r="C405" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
       <c r="A406" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B406" s="6">
         <v>203350137</v>
       </c>
-    </row>
-    <row r="407" spans="1:2">
+      <c r="C406" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
       <c r="A407" s="13" t="s">
         <v>351</v>
       </c>
       <c r="B407" s="6">
         <v>203620103</v>
       </c>
-    </row>
-    <row r="408" ht="28.5" spans="1:2">
+      <c r="C407" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" ht="28.5" spans="1:3">
       <c r="A408" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B408" s="12" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="409" ht="28.5" spans="1:2">
+      <c r="C408" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" ht="28.5" spans="1:3">
       <c r="A409" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B409" s="12" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="410" ht="28.5" spans="1:2">
+      <c r="C409" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" ht="28.5" spans="1:3">
       <c r="A410" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B410" s="12" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="411" ht="28.5" spans="1:2">
+      <c r="C410" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" ht="28.5" spans="1:3">
       <c r="A411" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B411" s="12" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="412" ht="28.5" spans="1:2">
+      <c r="C411" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" ht="28.5" spans="1:3">
       <c r="A412" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B412" s="12" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="413" ht="28.5" spans="1:2">
+      <c r="C412" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" ht="28.5" spans="1:3">
       <c r="A413" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B413" s="12" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="414" ht="28.5" spans="1:2">
+      <c r="C413" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" ht="28.5" spans="1:3">
       <c r="A414" s="13" t="s">
         <v>351</v>
       </c>
       <c r="B414" s="12" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="415" ht="28.5" spans="1:2">
+      <c r="C414" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" ht="28.5" spans="1:3">
       <c r="A415" s="13" t="s">
         <v>351</v>
       </c>
       <c r="B415" s="12" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="416" ht="28.5" spans="1:2">
+      <c r="C415" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" ht="28.5" spans="1:3">
       <c r="A416" s="13" t="s">
         <v>351</v>
       </c>
       <c r="B416" s="12" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="417" ht="28.5" spans="1:2">
+      <c r="C416" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" ht="28.5" spans="1:3">
       <c r="A417" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B417" s="12" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="418" ht="28.5" spans="1:2">
+      <c r="C417" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" ht="28.5" spans="1:3">
       <c r="A418" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B418" s="12" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="419" ht="28.5" spans="1:2">
+      <c r="C418" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" ht="28.5" spans="1:3">
       <c r="A419" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B419" s="12" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="420" ht="28.5" spans="1:2">
+      <c r="C419" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" ht="28.5" spans="1:3">
       <c r="A420" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B420" s="12" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="421" ht="28.5" spans="1:2">
+      <c r="C420" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" ht="28.5" spans="1:3">
       <c r="A421" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B421" s="12" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="422" ht="28.5" spans="1:2">
+      <c r="C421" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" ht="28.5" spans="1:3">
       <c r="A422" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B422" s="12" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="423" ht="28.5" spans="1:2">
+      <c r="C422" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" ht="28.5" spans="1:3">
       <c r="A423" s="14" t="s">
         <v>366</v>
       </c>
       <c r="B423" s="12" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="424" ht="28.5" spans="1:2">
+      <c r="C423" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" ht="28.5" spans="1:3">
       <c r="A424" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B424" s="12" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="425" ht="28.5" spans="1:2">
+      <c r="C424" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" ht="28.5" spans="1:3">
       <c r="A425" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B425" s="12" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="426" ht="28.5" spans="1:2">
+      <c r="C425" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" ht="28.5" spans="1:3">
       <c r="A426" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B426" s="12" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="427" ht="28.5" spans="1:2">
+      <c r="C426" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" ht="28.5" spans="1:3">
       <c r="A427" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B427" s="12" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="428" ht="28.5" spans="1:2">
+      <c r="C427" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" ht="28.5" spans="1:3">
       <c r="A428" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B428" s="12" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="429" ht="28.5" spans="1:2">
+      <c r="C428" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" ht="28.5" spans="1:3">
       <c r="A429" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B429" s="12" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="430" ht="28.5" spans="1:2">
+      <c r="C429" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" ht="28.5" spans="1:3">
       <c r="A430" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B430" s="12" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="431" ht="28.5" spans="1:2">
+      <c r="C430" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" ht="28.5" spans="1:3">
       <c r="A431" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B431" s="12" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="432" ht="28.5" spans="1:2">
+      <c r="C431" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" ht="28.5" spans="1:3">
       <c r="A432" s="7" t="s">
         <v>379</v>
       </c>
       <c r="B432" s="12" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="433" ht="28.5" spans="1:2">
+      <c r="C432" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" ht="28.5" spans="1:3">
       <c r="A433" s="7" t="s">
         <v>379</v>
       </c>
       <c r="B433" s="12" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="434" ht="28.5" spans="1:2">
+      <c r="C433" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" ht="28.5" spans="1:3">
       <c r="A434" s="7" t="s">
         <v>379</v>
       </c>
       <c r="B434" s="12" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="435" ht="28.5" spans="1:2">
+      <c r="C434" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" ht="28.5" spans="1:3">
       <c r="A435" s="7" t="s">
         <v>379</v>
       </c>
       <c r="B435" s="12" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="436" ht="28.5" spans="1:2">
+      <c r="C435" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" ht="28.5" spans="1:3">
       <c r="A436" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B436" s="12" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="437" ht="28.5" spans="1:2">
+      <c r="C436" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" ht="28.5" spans="1:3">
       <c r="A437" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B437" s="12" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="438" ht="28.5" spans="1:2">
+      <c r="C437" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" ht="28.5" spans="1:3">
       <c r="A438" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B438" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="439" ht="28.5" spans="1:2">
+      <c r="C438" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" ht="28.5" spans="1:3">
       <c r="A439" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B439" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="440" ht="28.5" spans="1:2">
+      <c r="C439" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" ht="28.5" spans="1:3">
       <c r="A440" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B440" s="12" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="441" ht="28.5" spans="1:2">
+      <c r="C440" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" ht="28.5" spans="1:3">
       <c r="A441" s="7" t="s">
         <v>389</v>
       </c>
       <c r="B441" s="12" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="442" ht="28.5" spans="1:2">
+      <c r="C441" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" ht="28.5" spans="1:3">
       <c r="A442" s="7" t="s">
         <v>389</v>
       </c>
       <c r="B442" s="12" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="443" ht="28.5" spans="1:2">
+      <c r="C442" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" ht="28.5" spans="1:3">
       <c r="A443" s="7" t="s">
         <v>389</v>
       </c>
       <c r="B443" s="12" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="444" ht="28.5" spans="1:2">
+      <c r="C443" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" ht="28.5" spans="1:3">
       <c r="A444" s="7" t="s">
         <v>389</v>
       </c>
       <c r="B444" s="12" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="445" ht="28.5" spans="1:2">
+      <c r="C444" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" ht="28.5" spans="1:3">
       <c r="A445" s="15" t="s">
         <v>389</v>
       </c>
       <c r="B445" s="12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="446" ht="28.5" spans="1:2">
+      <c r="C445" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" ht="28.5" spans="1:3">
       <c r="A446" s="7" t="s">
         <v>389</v>
       </c>
       <c r="B446" s="12" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="447" spans="1:2">
+      <c r="C446" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
       <c r="A447" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B447" s="6">
         <v>202210131</v>
       </c>
-    </row>
-    <row r="448" spans="1:2">
+      <c r="C447" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
       <c r="A448" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B448" s="6">
         <v>18530318</v>
       </c>
-    </row>
-    <row r="449" spans="1:2">
+      <c r="C448" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B449" s="6">
         <v>202210132</v>
       </c>
-    </row>
-    <row r="450" spans="1:2">
+      <c r="C449" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
       <c r="A450" s="7" t="s">
         <v>397</v>
       </c>
       <c r="B450" s="6">
         <v>203320119</v>
       </c>
-    </row>
-    <row r="451" spans="1:2">
+      <c r="C450" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
       <c r="A451" s="7" t="s">
         <v>397</v>
       </c>
       <c r="B451" s="6">
         <v>203320126</v>
       </c>
-    </row>
-    <row r="452" spans="1:2">
+      <c r="C451" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
       <c r="A452" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B452" s="6">
         <v>204472304</v>
       </c>
-    </row>
-    <row r="453" spans="1:2">
+      <c r="C452" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
       <c r="A453" s="7" t="s">
         <v>379</v>
       </c>
       <c r="B453" s="6">
         <v>204481211</v>
       </c>
-    </row>
-    <row r="454" spans="1:2">
+      <c r="C453" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
       <c r="A454" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B454" s="6">
         <v>204481215</v>
       </c>
-    </row>
-    <row r="455" spans="1:2">
+      <c r="C454" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
       <c r="A455" s="7" t="s">
         <v>398</v>
       </c>
       <c r="B455" s="6">
         <v>204481416</v>
       </c>
-    </row>
-    <row r="456" spans="1:2">
+      <c r="C455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
       <c r="A456" s="7" t="s">
         <v>379</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="457" ht="28.5" spans="1:2">
+      <c r="C456" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" ht="28.5" spans="1:3">
       <c r="A457" s="7" t="s">
         <v>400</v>
       </c>
       <c r="B457" s="12" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="458" ht="28.5" spans="1:2">
+      <c r="C457" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" ht="28.5" spans="1:3">
       <c r="A458" s="7" t="s">
         <v>400</v>
       </c>
       <c r="B458" s="12" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="459" ht="28.5" spans="1:2">
+      <c r="C458" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" ht="28.5" spans="1:3">
       <c r="A459" s="7" t="s">
         <v>400</v>
       </c>
       <c r="B459" s="12" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="460" ht="28.5" spans="1:2">
+      <c r="C459" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" ht="28.5" spans="1:3">
       <c r="A460" s="7" t="s">
         <v>400</v>
       </c>
       <c r="B460" s="12" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="461" ht="28.5" spans="1:2">
+      <c r="C460" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" ht="28.5" spans="1:3">
       <c r="A461" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B461" s="12" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="462" ht="28.5" spans="1:2">
+      <c r="C461" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" ht="28.5" spans="1:3">
       <c r="A462" s="13" t="s">
         <v>306</v>
       </c>
       <c r="B462" s="12" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="463" ht="28.5" spans="1:2">
+      <c r="C462" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" ht="28.5" spans="1:3">
       <c r="A463" s="11" t="s">
         <v>407</v>
       </c>
       <c r="B463" s="12" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="464" ht="28.5" spans="1:2">
+      <c r="C463" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" ht="28.5" spans="1:3">
       <c r="A464" s="11" t="s">
         <v>407</v>
       </c>
       <c r="B464" s="12" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="465" ht="28.5" spans="1:2">
+      <c r="C464" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" ht="28.5" spans="1:3">
       <c r="A465" s="11" t="s">
         <v>407</v>
       </c>
       <c r="B465" s="12" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="466" ht="28.5" spans="1:2">
+      <c r="C465" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" ht="28.5" spans="1:3">
       <c r="A466" s="11" t="s">
         <v>407</v>
       </c>
       <c r="B466" s="12" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="467" ht="28.5" spans="1:2">
+      <c r="C466" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" ht="28.5" spans="1:3">
       <c r="A467" s="7" t="s">
         <v>412</v>
       </c>
       <c r="B467" s="12" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="468" ht="28.5" spans="1:2">
+      <c r="C467" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" ht="28.5" spans="1:3">
       <c r="A468" s="7" t="s">
         <v>412</v>
       </c>
       <c r="B468" s="12" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="469" ht="28.5" spans="1:2">
+      <c r="C468" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" ht="28.5" spans="1:3">
       <c r="A469" s="7" t="s">
         <v>412</v>
       </c>
       <c r="B469" s="12" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="470" ht="28.5" spans="1:2">
+      <c r="C469" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" ht="28.5" spans="1:3">
       <c r="A470" s="7" t="s">
         <v>412</v>
       </c>
       <c r="B470" s="12" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="471" ht="28.5" spans="1:2">
+      <c r="C470" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" ht="28.5" spans="1:3">
       <c r="A471" s="7" t="s">
         <v>417</v>
       </c>
       <c r="B471" s="12" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="472" ht="28.5" spans="1:2">
+      <c r="C471" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" ht="28.5" spans="1:3">
       <c r="A472" s="7" t="s">
         <v>417</v>
       </c>
       <c r="B472" s="12" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="473" ht="28.5" spans="1:2">
+      <c r="C472" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" ht="28.5" spans="1:3">
       <c r="A473" s="7" t="s">
         <v>417</v>
       </c>
       <c r="B473" s="12" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="474" ht="28.5" spans="1:2">
+      <c r="C473" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" ht="28.5" spans="1:3">
       <c r="A474" s="7" t="s">
         <v>417</v>
       </c>
       <c r="B474" s="12" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="475" ht="28.5" spans="1:2">
+      <c r="C474" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" ht="28.5" spans="1:3">
       <c r="A475" s="7" t="s">
         <v>422</v>
       </c>
       <c r="B475" s="12" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="476" ht="28.5" spans="1:2">
+      <c r="C475" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" ht="28.5" spans="1:3">
       <c r="A476" s="7" t="s">
         <v>422</v>
       </c>
       <c r="B476" s="12" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="477" ht="28.5" spans="1:2">
+      <c r="C476" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" ht="28.5" spans="1:3">
       <c r="A477" s="7" t="s">
         <v>422</v>
       </c>
       <c r="B477" s="12" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="478" ht="28.5" spans="1:2">
+      <c r="C477" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" ht="28.5" spans="1:3">
       <c r="A478" s="7" t="s">
         <v>422</v>
       </c>
       <c r="B478" s="12" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="479" ht="28.5" spans="1:2">
+      <c r="C478" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" ht="28.5" spans="1:3">
       <c r="A479" s="7" t="s">
         <v>427</v>
       </c>
       <c r="B479" s="12" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="480" ht="28.5" spans="1:2">
+      <c r="C479" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" ht="28.5" spans="1:3">
       <c r="A480" s="7" t="s">
         <v>427</v>
       </c>
       <c r="B480" s="12" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="481" ht="28.5" spans="1:2">
+      <c r="C480" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" ht="28.5" spans="1:3">
       <c r="A481" s="7" t="s">
         <v>427</v>
       </c>
       <c r="B481" s="12" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="482" ht="28.5" spans="1:2">
+      <c r="C481" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" ht="28.5" spans="1:3">
       <c r="A482" s="7" t="s">
         <v>427</v>
       </c>
       <c r="B482" s="12" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="483" ht="28.5" spans="1:2">
+      <c r="C482" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" ht="28.5" spans="1:3">
       <c r="A483" s="7" t="s">
         <v>432</v>
       </c>
       <c r="B483" s="12" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="484" ht="28.5" spans="1:2">
+      <c r="C483" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" ht="28.5" spans="1:3">
       <c r="A484" s="7" t="s">
         <v>432</v>
       </c>
       <c r="B484" s="12" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="485" ht="28.5" spans="1:2">
+      <c r="C484" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" ht="28.5" spans="1:3">
       <c r="A485" s="7" t="s">
         <v>432</v>
       </c>
       <c r="B485" s="12" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="486" ht="28.5" spans="1:2">
+      <c r="C485" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" ht="28.5" spans="1:3">
       <c r="A486" s="7" t="s">
         <v>432</v>
       </c>
       <c r="B486" s="12" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="487" ht="28.5" spans="1:2">
+      <c r="C486" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" ht="28.5" spans="1:3">
       <c r="A487" s="7" t="s">
         <v>437</v>
       </c>
       <c r="B487" s="12" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="488" ht="28.5" spans="1:2">
+      <c r="C487" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" ht="28.5" spans="1:3">
       <c r="A488" s="7" t="s">
         <v>437</v>
       </c>
       <c r="B488" s="12" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="489" ht="28.5" spans="1:2">
+      <c r="C488" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" ht="28.5" spans="1:3">
       <c r="A489" s="7" t="s">
         <v>437</v>
       </c>
       <c r="B489" s="12" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="490" ht="28.5" spans="1:2">
+      <c r="C489" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" ht="28.5" spans="1:3">
       <c r="A490" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B490" s="12" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="491" spans="1:2">
+      <c r="C490" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
       <c r="A491" s="11" t="s">
         <v>442</v>
       </c>
       <c r="B491" s="6">
         <v>201110132</v>
       </c>
-    </row>
-    <row r="492" spans="1:2">
+      <c r="C491" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
       <c r="A492" s="7" t="s">
         <v>443</v>
       </c>
       <c r="B492" s="6">
         <v>201110504</v>
       </c>
-    </row>
-    <row r="493" spans="1:2">
+      <c r="C492" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
       <c r="A493" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B493" s="6">
         <v>203310104</v>
       </c>
-    </row>
-    <row r="494" spans="1:2">
+      <c r="C493" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
       <c r="A494" s="7" t="s">
         <v>443</v>
       </c>
       <c r="B494" s="6">
         <v>203310105</v>
       </c>
-    </row>
-    <row r="495" spans="1:2">
+      <c r="C494" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
       <c r="A495" s="7" t="s">
         <v>444</v>
       </c>
       <c r="B495" s="6">
         <v>203310228</v>
       </c>
-    </row>
-    <row r="496" spans="1:2">
+      <c r="C495" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
       <c r="A496" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B496" s="6">
         <v>203310232</v>
       </c>
-    </row>
-    <row r="497" spans="1:2">
+      <c r="C496" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
       <c r="A497" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B497" s="6">
         <v>204481419</v>
       </c>
-    </row>
-    <row r="498" ht="28.5" spans="1:2">
+      <c r="C497" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" ht="28.5" spans="1:3">
       <c r="A498" s="7" t="s">
         <v>446</v>
       </c>
       <c r="B498" s="12" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="499" ht="28.5" spans="1:2">
+      <c r="C498" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" ht="28.5" spans="1:3">
       <c r="A499" s="7" t="s">
         <v>446</v>
       </c>
       <c r="B499" s="12" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="500" ht="28.5" spans="1:2">
+      <c r="C499" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" ht="28.5" spans="1:3">
       <c r="A500" s="7" t="s">
         <v>446</v>
       </c>
       <c r="B500" s="12" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="501" ht="28.5" spans="1:2">
+      <c r="C500" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" ht="28.5" spans="1:3">
       <c r="A501" s="7" t="s">
         <v>446</v>
       </c>
       <c r="B501" s="12" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="502" ht="28.5" spans="1:2">
+      <c r="C501" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" ht="28.5" spans="1:3">
       <c r="A502" s="7" t="s">
         <v>446</v>
       </c>
       <c r="B502" s="12" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="503" ht="28.5" spans="1:2">
+      <c r="C502" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" ht="28.5" spans="1:3">
       <c r="A503" s="7" t="s">
         <v>446</v>
       </c>
       <c r="B503" s="12" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="504" ht="28.5" spans="1:2">
+      <c r="C503" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" ht="28.5" spans="1:3">
       <c r="A504" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B504" s="12" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="505" ht="28.5" spans="1:2">
+      <c r="C504" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" ht="28.5" spans="1:3">
       <c r="A505" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B505" s="12" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="506" ht="28.5" spans="1:2">
+      <c r="C505" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" ht="28.5" spans="1:3">
       <c r="A506" s="7" t="s">
         <v>455</v>
       </c>
       <c r="B506" s="12" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="507" ht="28.5" spans="1:2">
+      <c r="C506" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" ht="28.5" spans="1:3">
       <c r="A507" s="15" t="s">
         <v>455</v>
       </c>
       <c r="B507" s="12" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="508" ht="28.5" spans="1:2">
+      <c r="C507" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" ht="28.5" spans="1:3">
       <c r="A508" s="7" t="s">
         <v>455</v>
       </c>
       <c r="B508" s="12" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="509" ht="28.5" spans="1:2">
+      <c r="C508" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" ht="28.5" spans="1:3">
       <c r="A509" s="7" t="s">
         <v>455</v>
       </c>
       <c r="B509" s="12" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="510" ht="28.5" spans="1:2">
+      <c r="C509" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" ht="28.5" spans="1:3">
       <c r="A510" s="14" t="s">
         <v>460</v>
       </c>
       <c r="B510" s="12" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="511" ht="28.5" spans="1:2">
+      <c r="C510" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" ht="28.5" spans="1:3">
       <c r="A511" s="7" t="s">
         <v>460</v>
       </c>
       <c r="B511" s="12" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="512" ht="28.5" spans="1:2">
+      <c r="C511" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" ht="28.5" spans="1:3">
       <c r="A512" s="7" t="s">
         <v>460</v>
       </c>
       <c r="B512" s="12" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="513" ht="28.5" spans="1:2">
+      <c r="C512" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" ht="28.5" spans="1:3">
       <c r="A513" s="7" t="s">
         <v>464</v>
       </c>
       <c r="B513" s="12" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="514" ht="28.5" spans="1:2">
+      <c r="C513" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" ht="28.5" spans="1:3">
       <c r="A514" s="7" t="s">
         <v>464</v>
       </c>
       <c r="B514" s="12" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="515" ht="28.5" spans="1:2">
+      <c r="C514" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" ht="28.5" spans="1:3">
       <c r="A515" s="7" t="s">
         <v>464</v>
       </c>
       <c r="B515" s="12" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="516" ht="28.5" spans="1:2">
+      <c r="C515" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" ht="28.5" spans="1:3">
       <c r="A516" s="7" t="s">
         <v>464</v>
       </c>
       <c r="B516" s="12" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="517" ht="28.5" spans="1:2">
+      <c r="C516" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" ht="28.5" spans="1:3">
       <c r="A517" s="7" t="s">
         <v>469</v>
       </c>
       <c r="B517" s="12" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="518" ht="28.5" spans="1:2">
+      <c r="C517" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" ht="28.5" spans="1:3">
       <c r="A518" s="7" t="s">
         <v>469</v>
       </c>
       <c r="B518" s="12" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="519" ht="28.5" spans="1:2">
+      <c r="C518" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" ht="28.5" spans="1:3">
       <c r="A519" s="7" t="s">
         <v>469</v>
       </c>
       <c r="B519" s="12" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="520" ht="28.5" spans="1:2">
+      <c r="C519" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" ht="28.5" spans="1:3">
       <c r="A520" s="7" t="s">
         <v>469</v>
       </c>
       <c r="B520" s="12" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="521" ht="28.5" spans="1:2">
+      <c r="C520" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" ht="28.5" spans="1:3">
       <c r="A521" s="7" t="s">
         <v>474</v>
       </c>
       <c r="B521" s="12" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="522" ht="28.5" spans="1:2">
+      <c r="C521" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" ht="28.5" spans="1:3">
       <c r="A522" s="7" t="s">
         <v>474</v>
       </c>
       <c r="B522" s="12" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="523" ht="28.5" spans="1:2">
+      <c r="C522" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" ht="28.5" spans="1:3">
       <c r="A523" s="7" t="s">
         <v>474</v>
       </c>
       <c r="B523" s="12" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="524" ht="28.5" spans="1:2">
+      <c r="C523" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" ht="28.5" spans="1:3">
       <c r="A524" s="7" t="s">
         <v>474</v>
       </c>
       <c r="B524" s="12" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="525" ht="28.5" spans="1:2">
+      <c r="C524" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" ht="28.5" spans="1:3">
       <c r="A525" s="7" t="s">
         <v>442</v>
       </c>
       <c r="B525" s="12" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="526" ht="28.5" spans="1:2">
+      <c r="C525" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" ht="28.5" spans="1:3">
       <c r="A526" s="7" t="s">
         <v>442</v>
       </c>
       <c r="B526" s="12" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="527" ht="28.5" spans="1:2">
+      <c r="C526" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" ht="28.5" spans="1:3">
       <c r="A527" s="7" t="s">
         <v>460</v>
       </c>
       <c r="B527" s="12" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="528" ht="28.5" spans="1:2">
+      <c r="C527" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" ht="28.5" spans="1:3">
       <c r="A528" s="7" t="s">
         <v>442</v>
       </c>
       <c r="B528" s="12" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="529" ht="28.5" spans="1:2">
+      <c r="C528" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" ht="28.5" spans="1:3">
       <c r="A529" s="7" t="s">
         <v>437</v>
       </c>
       <c r="B529" s="12" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="530" ht="28.5" spans="1:2">
+      <c r="C529" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" ht="28.5" spans="1:3">
       <c r="A530" s="11" t="s">
         <v>484</v>
       </c>
       <c r="B530" s="12" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="531" ht="28.5" spans="1:2">
+      <c r="C530" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" ht="28.5" spans="1:3">
       <c r="A531" s="11" t="s">
         <v>484</v>
       </c>
       <c r="B531" s="12" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="532" ht="28.5" spans="1:2">
+      <c r="C531" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" ht="28.5" spans="1:3">
       <c r="A532" s="15" t="s">
         <v>484</v>
       </c>
       <c r="B532" s="12" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="533" ht="28.5" spans="1:2">
+      <c r="C532" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" ht="28.5" spans="1:3">
       <c r="A533" s="7" t="s">
         <v>484</v>
       </c>
       <c r="B533" s="12" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="534" spans="1:2">
+      <c r="C533" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
       <c r="A534" s="7" t="s">
         <v>489</v>
       </c>
       <c r="B534" s="12" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="535" spans="1:2">
+      <c r="C534" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
       <c r="A535" s="7" t="s">
         <v>491</v>
       </c>
       <c r="B535" s="12" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="536" ht="28.5" spans="1:2">
+      <c r="C535" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" ht="28.5" spans="1:3">
       <c r="A536" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B536" s="12" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="537" ht="28.5" spans="1:2">
+      <c r="C536" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" ht="28.5" spans="1:3">
       <c r="A537" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B537" s="12" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="538" ht="28.5" spans="1:2">
+      <c r="C537" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" ht="28.5" spans="1:3">
       <c r="A538" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B538" s="12" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="539" ht="28.5" spans="1:2">
+      <c r="C538" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" ht="28.5" spans="1:3">
       <c r="A539" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B539" s="12" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="540" ht="28.5" spans="1:2">
+      <c r="C539" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" ht="28.5" spans="1:3">
       <c r="A540" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B540" s="12" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="541" ht="28.5" spans="1:2">
+      <c r="C540" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" ht="28.5" spans="1:3">
       <c r="A541" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B541" s="12" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="542" ht="28.5" spans="1:2">
+      <c r="C541" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" ht="28.5" spans="1:3">
       <c r="A542" s="13" t="s">
         <v>500</v>
       </c>
       <c r="B542" s="12" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="543" ht="28.5" spans="1:2">
+      <c r="C542" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" ht="28.5" spans="1:3">
       <c r="A543" s="13" t="s">
         <v>500</v>
       </c>
       <c r="B543" s="12" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="544" ht="28.5" spans="1:2">
+      <c r="C543" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" ht="28.5" spans="1:3">
       <c r="A544" s="13" t="s">
         <v>500</v>
       </c>
       <c r="B544" s="12" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="545" ht="28.5" spans="1:2">
+      <c r="C544" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" ht="28.5" spans="1:3">
       <c r="A545" s="13" t="s">
         <v>500</v>
       </c>
       <c r="B545" s="12" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="546" ht="28.5" spans="1:2">
+      <c r="C545" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" ht="28.5" spans="1:3">
       <c r="A546" s="13" t="s">
         <v>500</v>
       </c>
       <c r="B546" s="12" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="547" ht="28.5" spans="1:2">
+      <c r="C546" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" ht="28.5" spans="1:3">
       <c r="A547" s="13" t="s">
         <v>500</v>
       </c>
       <c r="B547" s="12" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="548" ht="28.5" spans="1:2">
+      <c r="C547" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" ht="28.5" spans="1:3">
       <c r="A548" s="11" t="s">
         <v>491</v>
       </c>
       <c r="B548" s="12" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="549" ht="28.5" spans="1:2">
+      <c r="C548" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" ht="28.5" spans="1:3">
       <c r="A549" s="11" t="s">
         <v>491</v>
       </c>
       <c r="B549" s="12" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="550" ht="28.5" spans="1:2">
+      <c r="C549" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" ht="28.5" spans="1:3">
       <c r="A550" s="11" t="s">
         <v>491</v>
       </c>
       <c r="B550" s="12" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="551" ht="28.5" spans="1:2">
+      <c r="C550" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" ht="28.5" spans="1:3">
       <c r="A551" s="11" t="s">
         <v>510</v>
       </c>
       <c r="B551" s="12" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="552" ht="28.5" spans="1:2">
+      <c r="C551" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" ht="28.5" spans="1:3">
       <c r="A552" s="11" t="s">
         <v>510</v>
       </c>
       <c r="B552" s="12" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="553" ht="28.5" spans="1:2">
+      <c r="C552" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" ht="28.5" spans="1:3">
       <c r="A553" s="11" t="s">
         <v>510</v>
       </c>
       <c r="B553" s="12" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="554" ht="28.5" spans="1:2">
+      <c r="C553" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" ht="28.5" spans="1:3">
       <c r="A554" s="11" t="s">
         <v>510</v>
       </c>
       <c r="B554" s="12" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="555" ht="28.5" spans="1:2">
+      <c r="C554" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" ht="28.5" spans="1:3">
       <c r="A555" s="11" t="s">
         <v>515</v>
       </c>
       <c r="B555" s="12" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="556" ht="28.5" spans="1:2">
+      <c r="C555" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" ht="28.5" spans="1:3">
       <c r="A556" s="11" t="s">
         <v>515</v>
       </c>
       <c r="B556" s="12" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="557" ht="28.5" spans="1:2">
+      <c r="C556" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" ht="28.5" spans="1:3">
       <c r="A557" s="11" t="s">
         <v>515</v>
       </c>
       <c r="B557" s="12" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="558" ht="28.5" spans="1:2">
+      <c r="C557" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" ht="28.5" spans="1:3">
       <c r="A558" s="11" t="s">
         <v>515</v>
       </c>
       <c r="B558" s="12" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="559" ht="28.5" spans="1:2">
+      <c r="C558" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" ht="28.5" spans="1:3">
       <c r="A559" s="11" t="s">
         <v>348</v>
       </c>
       <c r="B559" s="12" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="560" ht="28.5" spans="1:2">
+      <c r="C559" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" ht="28.5" spans="1:3">
       <c r="A560" s="11" t="s">
         <v>348</v>
       </c>
       <c r="B560" s="12" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="561" ht="28.5" spans="1:2">
+      <c r="C560" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" ht="28.5" spans="1:3">
       <c r="A561" s="11" t="s">
         <v>348</v>
       </c>
       <c r="B561" s="12" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="562" ht="28.5" spans="1:2">
+      <c r="C561" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" ht="28.5" spans="1:3">
       <c r="A562" s="11" t="s">
         <v>445</v>
       </c>
       <c r="B562" s="12" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="563" ht="28.5" spans="1:2">
+      <c r="C562" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" ht="28.5" spans="1:3">
       <c r="A563" s="11" t="s">
         <v>445</v>
       </c>
       <c r="B563" s="12" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="564" ht="28.5" spans="1:2">
+      <c r="C563" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" ht="28.5" spans="1:3">
       <c r="A564" s="11" t="s">
         <v>445</v>
       </c>
       <c r="B564" s="12" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="565" ht="28.5" spans="1:2">
+      <c r="C564" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" ht="28.5" spans="1:3">
       <c r="A565" s="11" t="s">
         <v>526</v>
       </c>
       <c r="B565" s="12" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="566" ht="28.5" spans="1:2">
+      <c r="C565" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" ht="28.5" spans="1:3">
       <c r="A566" s="11" t="s">
         <v>526</v>
       </c>
       <c r="B566" s="12" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="567" ht="28.5" spans="1:2">
+      <c r="C566" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" ht="28.5" spans="1:3">
       <c r="A567" s="11" t="s">
         <v>526</v>
       </c>
       <c r="B567" s="12" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="568" ht="28.5" spans="1:2">
+      <c r="C567" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" ht="28.5" spans="1:3">
       <c r="A568" s="11" t="s">
         <v>526</v>
       </c>
       <c r="B568" s="12" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="569" ht="28.5" spans="1:2">
+      <c r="C568" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" ht="28.5" spans="1:3">
       <c r="A569" s="11" t="s">
         <v>444</v>
       </c>
       <c r="B569" s="12" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="570" ht="28.5" spans="1:2">
+      <c r="C569" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" ht="28.5" spans="1:3">
       <c r="A570" s="11" t="s">
         <v>444</v>
       </c>
       <c r="B570" s="12" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="571" ht="28.5" spans="1:2">
+      <c r="C570" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" ht="28.5" spans="1:3">
       <c r="A571" s="11" t="s">
         <v>444</v>
       </c>
       <c r="B571" s="12" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="572" ht="28.5" spans="1:2">
+      <c r="C571" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" ht="28.5" spans="1:3">
       <c r="A572" s="11" t="s">
         <v>534</v>
       </c>
       <c r="B572" s="12" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="573" ht="28.5" spans="1:2">
+      <c r="C572" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" ht="28.5" spans="1:3">
       <c r="A573" s="11" t="s">
         <v>534</v>
       </c>
       <c r="B573" s="12" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="574" ht="28.5" spans="1:2">
+      <c r="C573" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" ht="28.5" spans="1:3">
       <c r="A574" s="11" t="s">
         <v>534</v>
       </c>
       <c r="B574" s="12" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="575" ht="28.5" spans="1:2">
+      <c r="C574" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" ht="28.5" spans="1:3">
       <c r="A575" s="11" t="s">
         <v>534</v>
       </c>
       <c r="B575" s="12" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="576" ht="28.5" spans="1:2">
+      <c r="C575" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" ht="28.5" spans="1:3">
       <c r="A576" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B576" s="12" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="577" ht="28.5" spans="1:2">
+      <c r="C576" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" ht="28.5" spans="1:3">
       <c r="A577" s="13" t="s">
         <v>541</v>
       </c>
       <c r="B577" s="12" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="578" ht="28.5" spans="1:2">
+      <c r="C577" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" ht="28.5" spans="1:3">
       <c r="A578" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B578" s="12" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="579" ht="28.5" spans="1:2">
+      <c r="C578" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" ht="28.5" spans="1:3">
       <c r="A579" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B579" s="12" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="580" ht="28.5" spans="1:2">
+      <c r="C579" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" ht="28.5" spans="1:3">
       <c r="A580" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B580" s="12" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="581" ht="28.5" spans="1:2">
+      <c r="C580" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" ht="28.5" spans="1:3">
       <c r="A581" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B581" s="12" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="582" ht="28.5" spans="1:2">
+      <c r="C581" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" ht="28.5" spans="1:3">
       <c r="A582" s="13" t="s">
         <v>547</v>
       </c>
       <c r="B582" s="12" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="583" ht="28.5" spans="1:2">
+      <c r="C582" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" ht="28.5" spans="1:3">
       <c r="A583" s="13" t="s">
         <v>443</v>
       </c>
       <c r="B583" s="12" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="584" ht="28.5" spans="1:2">
+      <c r="C583" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" ht="28.5" spans="1:3">
       <c r="A584" s="13" t="s">
         <v>443</v>
       </c>
       <c r="B584" s="12" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="585" ht="28.5" spans="1:2">
+      <c r="C584" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" ht="28.5" spans="1:3">
       <c r="A585" s="13" t="s">
         <v>547</v>
       </c>
       <c r="B585" s="12" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="586" ht="28.5" spans="1:2">
+      <c r="C585" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" ht="28.5" spans="1:3">
       <c r="A586" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B586" s="12" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="587" ht="28.5" spans="1:2">
+      <c r="C586" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" ht="28.5" spans="1:3">
       <c r="A587" s="11" t="s">
         <v>553</v>
       </c>
       <c r="B587" s="12" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="588" ht="28.5" spans="1:2">
+      <c r="C587" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" ht="28.5" spans="1:3">
       <c r="A588" s="11" t="s">
         <v>553</v>
       </c>
       <c r="B588" s="12" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="589" ht="28.5" spans="1:2">
+      <c r="C588" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" ht="28.5" spans="1:3">
       <c r="A589" s="11" t="s">
         <v>553</v>
       </c>
       <c r="B589" s="12" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="590" ht="28.5" spans="1:2">
+      <c r="C589" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" ht="28.5" spans="1:3">
       <c r="A590" s="11" t="s">
         <v>553</v>
       </c>
       <c r="B590" s="12" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="591" ht="28.5" spans="1:2">
+      <c r="C590" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" ht="28.5" spans="1:3">
       <c r="A591" s="11" t="s">
         <v>489</v>
       </c>
       <c r="B591" s="12" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="592" ht="28.5" spans="1:2">
+      <c r="C591" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" ht="28.5" spans="1:3">
       <c r="A592" s="11" t="s">
         <v>489</v>
       </c>
       <c r="B592" s="12" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="593" ht="28.5" spans="1:2">
+      <c r="C592" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" ht="28.5" spans="1:3">
       <c r="A593" s="11" t="s">
         <v>489</v>
       </c>
       <c r="B593" s="12" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="594" ht="28.5" spans="1:2">
+      <c r="C593" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" ht="28.5" spans="1:3">
       <c r="A594" s="11" t="s">
         <v>561</v>
       </c>
       <c r="B594" s="12" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="595" ht="28.5" spans="1:2">
+      <c r="C594" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" ht="28.5" spans="1:3">
       <c r="A595" s="11" t="s">
         <v>561</v>
       </c>
       <c r="B595" s="12" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="596" ht="28.5" spans="1:2">
+      <c r="C595" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" ht="28.5" spans="1:3">
       <c r="A596" s="11" t="s">
         <v>561</v>
       </c>
       <c r="B596" s="12" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="597" ht="28.5" spans="1:2">
+      <c r="C596" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" ht="28.5" spans="1:3">
       <c r="A597" s="11" t="s">
         <v>561</v>
       </c>
       <c r="B597" s="12" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="598" ht="28.5" spans="1:2">
+      <c r="C597" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" ht="28.5" spans="1:3">
       <c r="A598" s="11" t="s">
         <v>397</v>
       </c>
       <c r="B598" s="12" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="599" ht="28.5" spans="1:2">
+      <c r="C598" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" ht="28.5" spans="1:3">
       <c r="A599" s="11" t="s">
         <v>397</v>
       </c>
       <c r="B599" s="12" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="600" ht="28.5" spans="1:2">
+      <c r="C599" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" ht="28.5" spans="1:3">
       <c r="A600" s="11" t="s">
         <v>568</v>
       </c>
       <c r="B600" s="12" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="601" ht="28.5" spans="1:2">
+      <c r="C600" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" ht="28.5" spans="1:3">
       <c r="A601" s="11" t="s">
         <v>568</v>
       </c>
       <c r="B601" s="12" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="602" ht="28.5" spans="1:2">
+      <c r="C601" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" ht="28.5" spans="1:3">
       <c r="A602" s="11" t="s">
         <v>568</v>
       </c>
       <c r="B602" s="12" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="603" ht="28.5" spans="1:2">
+      <c r="C602" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" ht="28.5" spans="1:3">
       <c r="A603" s="11" t="s">
         <v>568</v>
       </c>
       <c r="B603" s="12" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="604" ht="28.5" spans="1:2">
+      <c r="C603" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" ht="28.5" spans="1:3">
       <c r="A604" s="11" t="s">
         <v>573</v>
       </c>
       <c r="B604" s="12" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="605" ht="28.5" spans="1:2">
+      <c r="C604" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" ht="28.5" spans="1:3">
       <c r="A605" s="11" t="s">
         <v>573</v>
       </c>
       <c r="B605" s="12" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="606" ht="28.5" spans="1:2">
+      <c r="C605" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" ht="28.5" spans="1:3">
       <c r="A606" s="11" t="s">
         <v>573</v>
       </c>
       <c r="B606" s="12" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="607" ht="28.5" spans="1:2">
+      <c r="C606" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" ht="28.5" spans="1:3">
       <c r="A607" s="11" t="s">
         <v>573</v>
       </c>
       <c r="B607" s="12" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="608" ht="28.5" spans="1:2">
+      <c r="C607" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608" ht="28.5" spans="1:3">
       <c r="A608" s="11" t="s">
         <v>578</v>
       </c>
       <c r="B608" s="12" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="609" ht="28.5" spans="1:2">
+      <c r="C608" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" ht="28.5" spans="1:3">
       <c r="A609" s="11" t="s">
         <v>578</v>
       </c>
       <c r="B609" s="12" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="610" ht="28.5" spans="1:2">
+      <c r="C609" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" ht="28.5" spans="1:3">
       <c r="A610" s="11" t="s">
         <v>578</v>
       </c>
       <c r="B610" s="12" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="611" ht="28.5" spans="1:2">
+      <c r="C610" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" ht="28.5" spans="1:3">
       <c r="A611" s="11" t="s">
         <v>578</v>
       </c>
       <c r="B611" s="12" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="612" ht="28.5" spans="1:2">
+      <c r="C611" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" ht="28.5" spans="1:3">
       <c r="A612" s="11" t="s">
         <v>583</v>
       </c>
       <c r="B612" s="12" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="613" ht="28.5" spans="1:2">
+      <c r="C612" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" ht="28.5" spans="1:3">
       <c r="A613" s="11" t="s">
         <v>583</v>
       </c>
       <c r="B613" s="12" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="614" ht="28.5" spans="1:2">
+      <c r="C613" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" ht="28.5" spans="1:3">
       <c r="A614" s="11" t="s">
         <v>583</v>
       </c>
       <c r="B614" s="12" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="615" ht="28.5" spans="1:2">
+      <c r="C614" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" ht="28.5" spans="1:3">
       <c r="A615" s="11" t="s">
         <v>583</v>
       </c>
       <c r="B615" s="12" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="616" ht="28.5" spans="1:2">
+      <c r="C615" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" ht="28.5" spans="1:3">
       <c r="A616" s="11" t="s">
         <v>588</v>
       </c>
       <c r="B616" s="12" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="617" ht="28.5" spans="1:2">
+      <c r="C616" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" ht="28.5" spans="1:3">
       <c r="A617" s="11" t="s">
         <v>588</v>
       </c>
       <c r="B617" s="12" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="618" ht="28.5" spans="1:2">
+      <c r="C617" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" ht="28.5" spans="1:3">
       <c r="A618" s="13" t="s">
         <v>591</v>
       </c>
       <c r="B618" s="12" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="619" ht="28.5" spans="1:2">
+      <c r="C618" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" ht="28.5" spans="1:3">
       <c r="A619" s="13" t="s">
         <v>591</v>
       </c>
       <c r="B619" s="12" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="620" ht="28.5" spans="1:2">
+      <c r="C619" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" ht="28.5" spans="1:3">
       <c r="A620" s="13" t="s">
         <v>591</v>
       </c>
       <c r="B620" s="12" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="621" ht="28.5" spans="1:2">
+      <c r="C620" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" ht="28.5" spans="1:3">
       <c r="A621" s="13" t="s">
         <v>591</v>
       </c>
       <c r="B621" s="12" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="622" ht="28.5" spans="1:2">
+      <c r="C621" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" ht="28.5" spans="1:3">
       <c r="A622" s="13" t="s">
         <v>541</v>
       </c>
       <c r="B622" s="12" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="623" ht="28.5" spans="1:2">
+      <c r="C622" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" ht="28.5" spans="1:3">
       <c r="A623" s="13" t="s">
         <v>591</v>
       </c>
       <c r="B623" s="12" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="624" ht="28.5" spans="1:2">
+      <c r="C623" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" ht="28.5" spans="1:3">
       <c r="A624" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B624" s="12" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="625" ht="28.5" spans="1:2">
+      <c r="C624" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" ht="28.5" spans="1:3">
       <c r="A625" s="11" t="s">
         <v>600</v>
       </c>
       <c r="B625" s="12" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="626" ht="28.5" spans="1:2">
+      <c r="C625" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" ht="28.5" spans="1:3">
       <c r="A626" s="11" t="s">
         <v>600</v>
       </c>
       <c r="B626" s="12" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="627" ht="28.5" spans="1:2">
+      <c r="C626" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" ht="28.5" spans="1:3">
       <c r="A627" s="11" t="s">
         <v>600</v>
       </c>
       <c r="B627" s="12" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="628" ht="28.5" spans="1:2">
+      <c r="C627" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" ht="28.5" spans="1:3">
       <c r="A628" s="11" t="s">
         <v>600</v>
       </c>
       <c r="B628" s="12" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="629" ht="28.5" spans="1:2">
+      <c r="C628" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" ht="28.5" spans="1:3">
       <c r="A629" s="11" t="s">
         <v>605</v>
       </c>
       <c r="B629" s="12" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="630" ht="28.5" spans="1:2">
+      <c r="C629" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" ht="28.5" spans="1:3">
       <c r="A630" s="11" t="s">
         <v>605</v>
       </c>
       <c r="B630" s="12" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="631" ht="28.5" spans="1:2">
+      <c r="C630" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" ht="28.5" spans="1:3">
       <c r="A631" s="11" t="s">
         <v>605</v>
       </c>
       <c r="B631" s="12" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="632" ht="28.5" spans="1:2">
+      <c r="C631" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" ht="28.5" spans="1:3">
       <c r="A632" s="11" t="s">
         <v>605</v>
       </c>
       <c r="B632" s="12" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="633" ht="28.5" spans="1:2">
+      <c r="C632" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" ht="28.5" spans="1:3">
       <c r="A633" s="11" t="s">
         <v>605</v>
       </c>
       <c r="B633" s="12" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="634" ht="28.5" spans="1:2">
+      <c r="C633" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" ht="28.5" spans="1:3">
       <c r="A634" s="11" t="s">
         <v>611</v>
       </c>
       <c r="B634" s="12" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="635" ht="28.5" spans="1:2">
+      <c r="C634" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" ht="28.5" spans="1:3">
       <c r="A635" s="11" t="s">
         <v>611</v>
       </c>
       <c r="B635" s="12" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="636" ht="28.5" spans="1:2">
+      <c r="C635" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" ht="28.5" spans="1:3">
       <c r="A636" s="11" t="s">
         <v>611</v>
       </c>
       <c r="B636" s="12" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="637" ht="28.5" spans="1:2">
+      <c r="C636" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" ht="28.5" spans="1:3">
       <c r="A637" s="11" t="s">
         <v>611</v>
       </c>
       <c r="B637" s="12" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="638" ht="28.5" spans="1:2">
+      <c r="C637" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" ht="28.5" spans="1:3">
       <c r="A638" s="11" t="s">
         <v>611</v>
       </c>
       <c r="B638" s="12" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="639" ht="28.5" spans="1:2">
+      <c r="C638" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" ht="28.5" spans="1:3">
       <c r="A639" s="11" t="s">
         <v>611</v>
       </c>
       <c r="B639" s="12" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="640" ht="28.5" spans="1:2">
+      <c r="C639" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" ht="28.5" spans="1:3">
       <c r="A640" s="16" t="s">
         <v>618</v>
       </c>
       <c r="B640" s="12" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="641" ht="28.5" spans="1:2">
+      <c r="C640" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" ht="28.5" spans="1:3">
       <c r="A641" s="16" t="s">
         <v>618</v>
       </c>
       <c r="B641" s="12" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="642" ht="28.5" spans="1:2">
+      <c r="C641" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" ht="28.5" spans="1:3">
       <c r="A642" s="16" t="s">
         <v>618</v>
       </c>
       <c r="B642" s="12" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="643" ht="28.5" spans="1:2">
+      <c r="C642" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" ht="28.5" spans="1:3">
       <c r="A643" s="16" t="s">
         <v>618</v>
       </c>
       <c r="B643" s="12" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="644" ht="28.5" spans="1:2">
+      <c r="C643" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" ht="28.5" spans="1:3">
       <c r="A644" s="16" t="s">
         <v>618</v>
       </c>
       <c r="B644" s="12" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="645" ht="28.5" spans="1:2">
+      <c r="C644" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" ht="28.5" spans="1:3">
       <c r="A645" s="11" t="s">
         <v>624</v>
       </c>
       <c r="B645" s="12" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="646" ht="28.5" spans="1:2">
+      <c r="C645" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646" ht="28.5" spans="1:3">
       <c r="A646" s="11" t="s">
         <v>624</v>
       </c>
       <c r="B646" s="12" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="647" ht="28.5" spans="1:2">
+      <c r="C646" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" ht="28.5" spans="1:3">
       <c r="A647" s="11" t="s">
         <v>624</v>
       </c>
       <c r="B647" s="12" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="648" ht="28.5" spans="1:2">
+      <c r="C647" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" ht="28.5" spans="1:3">
       <c r="A648" s="11" t="s">
         <v>624</v>
       </c>
       <c r="B648" s="12" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="649" ht="28.5" spans="1:2">
+      <c r="C648" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" ht="28.5" spans="1:3">
       <c r="A649" s="11" t="s">
         <v>624</v>
       </c>
       <c r="B649" s="12" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="650" ht="28.5" spans="1:2">
+      <c r="C649" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" ht="28.5" spans="1:3">
       <c r="A650" s="11" t="s">
         <v>624</v>
       </c>
       <c r="B650" s="12" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="651" spans="1:2">
+      <c r="C650" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
       <c r="A651" s="16" t="s">
         <v>631</v>
       </c>
       <c r="B651" s="12" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="652" ht="28.5" spans="1:2">
+      <c r="C651" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" ht="28.5" spans="1:3">
       <c r="A652" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B652" s="12" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="653" ht="28.5" spans="1:2">
+      <c r="C652" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" ht="28.5" spans="1:3">
       <c r="A653" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B653" s="12" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="654" ht="28.5" spans="1:2">
+      <c r="C653" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" ht="28.5" spans="1:3">
       <c r="A654" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B654" s="12" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="655" ht="28.5" spans="1:2">
+      <c r="C654" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" ht="28.5" spans="1:3">
       <c r="A655" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B655" s="12" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="656" ht="28.5" spans="1:2">
+      <c r="C655" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" ht="28.5" spans="1:3">
       <c r="A656" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B656" s="12" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="657" ht="28.5" spans="1:2">
+      <c r="C656" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" ht="28.5" spans="1:3">
       <c r="A657" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B657" s="12" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="658" ht="28.5" spans="1:2">
+      <c r="C657" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" ht="28.5" spans="1:3">
       <c r="A658" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B658" s="12" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="659" ht="28.5" spans="1:2">
+      <c r="C658" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" ht="28.5" spans="1:3">
       <c r="A659" s="16" t="s">
         <v>631</v>
       </c>
       <c r="B659" s="12" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="660" ht="28.5" spans="1:2">
+      <c r="C659" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" ht="28.5" spans="1:3">
       <c r="A660" s="16" t="s">
         <v>631</v>
       </c>
       <c r="B660" s="12" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="661" ht="28.5" spans="1:2">
+      <c r="C660" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" ht="28.5" spans="1:3">
       <c r="A661" s="16" t="s">
         <v>631</v>
       </c>
       <c r="B661" s="12" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="662" ht="28.5" spans="1:2">
+      <c r="C661" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" ht="28.5" spans="1:3">
       <c r="A662" s="16" t="s">
         <v>631</v>
       </c>
       <c r="B662" s="12" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="663" ht="28.5" spans="1:2">
+      <c r="C662" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" ht="28.5" spans="1:3">
       <c r="A663" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B663" s="12" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="664" ht="28.5" spans="1:2">
+      <c r="C663" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" ht="28.5" spans="1:3">
       <c r="A664" s="16" t="s">
         <v>631</v>
       </c>
       <c r="B664" s="12" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="665" ht="28.5" spans="1:2">
+      <c r="C664" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" ht="28.5" spans="1:3">
       <c r="A665" s="16" t="s">
         <v>647</v>
       </c>
       <c r="B665" s="12" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="666" ht="28.5" spans="1:2">
+      <c r="C665" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" ht="28.5" spans="1:3">
       <c r="A666" s="16" t="s">
         <v>647</v>
       </c>
       <c r="B666" s="12" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="667" ht="28.5" spans="1:2">
+      <c r="C666" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" ht="28.5" spans="1:3">
       <c r="A667" s="16" t="s">
         <v>647</v>
       </c>
       <c r="B667" s="12" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="668" ht="28.5" spans="1:2">
+      <c r="C667" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" ht="28.5" spans="1:3">
       <c r="A668" s="16" t="s">
         <v>647</v>
       </c>
       <c r="B668" s="12" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="669" ht="28.5" spans="1:2">
+      <c r="C668" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" ht="28.5" spans="1:3">
       <c r="A669" s="16" t="s">
         <v>647</v>
       </c>
       <c r="B669" s="12" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="670" ht="28.5" spans="1:2">
+      <c r="C669" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" ht="28.5" spans="1:3">
       <c r="A670" s="16" t="s">
         <v>647</v>
       </c>
       <c r="B670" s="12" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="671" ht="28.5" spans="1:2">
+      <c r="C670" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" ht="28.5" spans="1:3">
       <c r="A671" s="16" t="s">
         <v>654</v>
       </c>
       <c r="B671" s="12" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="672" ht="28.5" spans="1:2">
+      <c r="C671" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" ht="28.5" spans="1:3">
       <c r="A672" s="16" t="s">
         <v>654</v>
       </c>
       <c r="B672" s="12" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="673" ht="28.5" spans="1:2">
+      <c r="C672" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" ht="28.5" spans="1:3">
       <c r="A673" s="16" t="s">
         <v>654</v>
       </c>
       <c r="B673" s="12" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="674" ht="28.5" spans="1:2">
+      <c r="C673" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" ht="28.5" spans="1:3">
       <c r="A674" s="16" t="s">
         <v>654</v>
       </c>
       <c r="B674" s="12" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="675" ht="28.5" spans="1:2">
+      <c r="C674" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" ht="28.5" spans="1:3">
       <c r="A675" s="16" t="s">
         <v>654</v>
       </c>
       <c r="B675" s="12" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="676" ht="28.5" spans="1:2">
+      <c r="C675" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" ht="28.5" spans="1:3">
       <c r="A676" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B676" s="12" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="677" ht="28.5" spans="1:2">
+      <c r="C676" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" ht="28.5" spans="1:3">
       <c r="A677" s="11" t="s">
         <v>661</v>
       </c>
       <c r="B677" s="12" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="678" ht="28.5" spans="1:2">
+      <c r="C677" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" ht="28.5" spans="1:3">
       <c r="A678" s="11" t="s">
         <v>661</v>
       </c>
       <c r="B678" s="12" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="679" ht="28.5" spans="1:2">
+      <c r="C678" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" ht="28.5" spans="1:3">
       <c r="A679" s="11" t="s">
         <v>661</v>
       </c>
       <c r="B679" s="12" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="680" ht="28.5" spans="1:2">
+      <c r="C679" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" ht="28.5" spans="1:3">
       <c r="A680" s="11" t="s">
         <v>661</v>
       </c>
       <c r="B680" s="12" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="681" ht="28.5" spans="1:2">
+      <c r="C680" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" ht="28.5" spans="1:3">
       <c r="A681" s="11" t="s">
         <v>661</v>
       </c>
       <c r="B681" s="12" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="682" ht="28.5" spans="1:2">
+      <c r="C681" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" ht="28.5" spans="1:3">
       <c r="A682" s="11" t="s">
         <v>661</v>
       </c>
       <c r="B682" s="12" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="683" ht="28.5" spans="1:2">
+      <c r="C682" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" ht="28.5" spans="1:3">
       <c r="A683" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B683" s="12" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="684" ht="28.5" spans="1:2">
+      <c r="C683" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" ht="28.5" spans="1:3">
       <c r="A684" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B684" s="12" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="685" ht="28.5" spans="1:2">
+      <c r="C684" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" ht="28.5" spans="1:3">
       <c r="A685" s="16" t="s">
         <v>654</v>
       </c>
       <c r="B685" s="12" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="686" ht="28.5" spans="1:2">
+      <c r="C685" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" ht="28.5" spans="1:3">
       <c r="A686" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B686" s="12" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="687" spans="1:2">
+      <c r="C686" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
       <c r="A687" s="17" t="s">
         <v>672</v>
       </c>
       <c r="B687" s="18">
         <v>18540118</v>
       </c>
-    </row>
-    <row r="688" spans="1:2">
+      <c r="C687" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
       <c r="A688" s="19" t="s">
         <v>618</v>
       </c>
       <c r="B688" s="18">
         <v>201160221</v>
       </c>
-    </row>
-    <row r="689" spans="1:2">
+      <c r="C688" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
       <c r="A689" s="19" t="s">
         <v>672</v>
       </c>
       <c r="B689" s="18">
         <v>201160226</v>
       </c>
-    </row>
-    <row r="690" spans="1:2">
+      <c r="C689" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
       <c r="A690" s="13" t="s">
         <v>673</v>
       </c>
       <c r="B690" s="18">
         <v>203640227</v>
       </c>
-    </row>
-    <row r="691" spans="1:2">
+      <c r="C690" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
       <c r="A691" s="19" t="s">
         <v>672</v>
       </c>
       <c r="B691" s="18">
         <v>205420113</v>
       </c>
-    </row>
-    <row r="692" spans="1:2">
+      <c r="C691" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
       <c r="A692" s="13" t="s">
         <v>400</v>
       </c>
       <c r="B692" s="18">
         <v>206530101</v>
       </c>
-    </row>
-    <row r="693" spans="1:2">
+      <c r="C692" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
       <c r="A693" s="13" t="s">
         <v>400</v>
       </c>
       <c r="B693" s="18">
         <v>206530106</v>
       </c>
-    </row>
-    <row r="694" spans="1:2">
+      <c r="C693" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
       <c r="A694" s="11" t="s">
         <v>672</v>
       </c>
       <c r="B694" s="20">
         <v>18540139</v>
       </c>
-    </row>
-    <row r="695" spans="1:2">
+      <c r="C694" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
       <c r="A695" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B695" s="20">
         <v>206540101</v>
       </c>
-    </row>
-    <row r="696" spans="1:2">
+      <c r="C695" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
       <c r="A696" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B696" s="20">
         <v>206540102</v>
       </c>
-    </row>
-    <row r="697" spans="1:2">
+      <c r="C696" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
       <c r="A697" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B697" s="20">
         <v>206540103</v>
       </c>
-    </row>
-    <row r="698" spans="1:2">
+      <c r="C697" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
       <c r="A698" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B698" s="20">
         <v>206540104</v>
       </c>
-    </row>
-    <row r="699" spans="1:2">
+      <c r="C698" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
       <c r="A699" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B699" s="20">
         <v>206540105</v>
       </c>
-    </row>
-    <row r="700" spans="1:2">
+      <c r="C699" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
       <c r="A700" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B700" s="20">
         <v>206540106</v>
       </c>
-    </row>
-    <row r="701" spans="1:2">
+      <c r="C700" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
       <c r="A701" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B701" s="20">
         <v>206540107</v>
       </c>
-    </row>
-    <row r="702" spans="1:2">
+      <c r="C701" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
       <c r="A702" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B702" s="20">
         <v>206540108</v>
       </c>
-    </row>
-    <row r="703" spans="1:2">
+      <c r="C702" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
       <c r="A703" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B703" s="20">
         <v>206540109</v>
       </c>
-    </row>
-    <row r="704" spans="1:2">
+      <c r="C703" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
       <c r="A704" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B704" s="20">
         <v>206540110</v>
       </c>
-    </row>
-    <row r="705" spans="1:2">
+      <c r="C704" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
       <c r="A705" s="11" t="s">
         <v>675</v>
       </c>
       <c r="B705" s="20">
         <v>206540111</v>
       </c>
-    </row>
-    <row r="706" spans="1:2">
+      <c r="C705" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
       <c r="A706" s="11" t="s">
         <v>675</v>
       </c>
       <c r="B706" s="20">
         <v>206540112</v>
       </c>
-    </row>
-    <row r="707" spans="1:2">
+      <c r="C706" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
       <c r="A707" s="11" t="s">
         <v>675</v>
       </c>
       <c r="B707" s="20">
         <v>206540113</v>
       </c>
-    </row>
-    <row r="708" spans="1:2">
+      <c r="C707" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
       <c r="A708" s="11" t="s">
         <v>675</v>
       </c>
       <c r="B708" s="20">
         <v>206540114</v>
       </c>
-    </row>
-    <row r="709" spans="1:2">
+      <c r="C708" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
       <c r="A709" s="11" t="s">
         <v>675</v>
       </c>
       <c r="B709" s="20">
         <v>206540115</v>
       </c>
-    </row>
-    <row r="710" spans="1:2">
+      <c r="C709" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
       <c r="A710" s="11" t="s">
         <v>675</v>
       </c>
       <c r="B710" s="20">
         <v>206540116</v>
       </c>
-    </row>
-    <row r="711" spans="1:2">
+      <c r="C710" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
       <c r="A711" s="11" t="s">
         <v>676</v>
       </c>
       <c r="B711" s="20">
         <v>206540117</v>
       </c>
-    </row>
-    <row r="712" spans="1:2">
+      <c r="C711" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
       <c r="A712" s="11" t="s">
         <v>676</v>
       </c>
       <c r="B712" s="20">
         <v>206540118</v>
       </c>
-    </row>
-    <row r="713" spans="1:2">
+      <c r="C712" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
       <c r="A713" s="11" t="s">
         <v>676</v>
       </c>
       <c r="B713" s="20">
         <v>206540119</v>
       </c>
-    </row>
-    <row r="714" spans="1:2">
+      <c r="C713" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
       <c r="A714" s="11" t="s">
         <v>676</v>
       </c>
       <c r="B714" s="20">
         <v>206540120</v>
       </c>
-    </row>
-    <row r="715" spans="1:2">
+      <c r="C714" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
       <c r="A715" s="11" t="s">
         <v>677</v>
       </c>
       <c r="B715" s="20">
         <v>206540122</v>
       </c>
-    </row>
-    <row r="716" spans="1:2">
+      <c r="C715" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
       <c r="A716" s="11" t="s">
         <v>677</v>
       </c>
       <c r="B716" s="20">
         <v>206540123</v>
       </c>
-    </row>
-    <row r="717" spans="1:2">
+      <c r="C716" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
       <c r="A717" s="11" t="s">
         <v>677</v>
       </c>
       <c r="B717" s="20">
         <v>206540124</v>
       </c>
-    </row>
-    <row r="718" spans="1:2">
+      <c r="C717" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
       <c r="A718" s="11" t="s">
         <v>677</v>
       </c>
       <c r="B718" s="20">
         <v>206540125</v>
       </c>
-    </row>
-    <row r="719" spans="1:2">
+      <c r="C718" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
       <c r="A719" s="11" t="s">
         <v>677</v>
       </c>
       <c r="B719" s="20">
         <v>206540127</v>
       </c>
-    </row>
-    <row r="720" spans="1:2">
+      <c r="C719" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
       <c r="A720" s="11" t="s">
         <v>678</v>
       </c>
       <c r="B720" s="20">
         <v>206540128</v>
       </c>
-    </row>
-    <row r="721" spans="1:2">
+      <c r="C720" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
       <c r="A721" s="11" t="s">
         <v>678</v>
       </c>
       <c r="B721" s="20">
         <v>206540129</v>
       </c>
-    </row>
-    <row r="722" spans="1:2">
+      <c r="C721" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
       <c r="A722" s="11" t="s">
         <v>678</v>
       </c>
       <c r="B722" s="20">
         <v>206540130</v>
       </c>
-    </row>
-    <row r="723" spans="1:2">
+      <c r="C722" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
       <c r="A723" s="11" t="s">
         <v>678</v>
       </c>
       <c r="B723" s="20">
         <v>206540131</v>
       </c>
-    </row>
-    <row r="724" spans="1:2">
+      <c r="C723" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
       <c r="A724" s="11" t="s">
         <v>678</v>
       </c>
       <c r="B724" s="20">
         <v>206540132</v>
       </c>
-    </row>
-    <row r="725" spans="1:2">
+      <c r="C724" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
       <c r="A725" s="11" t="s">
         <v>678</v>
       </c>
       <c r="B725" s="20">
         <v>206540133</v>
       </c>
-    </row>
-    <row r="726" spans="1:2">
+      <c r="C725" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
       <c r="A726" s="11" t="s">
         <v>679</v>
       </c>
       <c r="B726" s="20">
         <v>206540134</v>
       </c>
-    </row>
-    <row r="727" spans="1:2">
+      <c r="C726" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
       <c r="A727" s="11" t="s">
         <v>679</v>
       </c>
       <c r="B727" s="20">
         <v>206540135</v>
       </c>
-    </row>
-    <row r="728" spans="1:2">
+      <c r="C727" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
       <c r="A728" s="11" t="s">
         <v>679</v>
       </c>
       <c r="B728" s="20">
         <v>206540136</v>
       </c>
-    </row>
-    <row r="729" spans="1:2">
+      <c r="C728" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
       <c r="A729" s="11" t="s">
         <v>679</v>
       </c>
       <c r="B729" s="20">
         <v>206540137</v>
       </c>
-    </row>
-    <row r="730" spans="1:2">
+      <c r="C729" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
       <c r="A730" s="11" t="s">
         <v>679</v>
       </c>
       <c r="B730" s="20">
         <v>206540139</v>
       </c>
-    </row>
-    <row r="731" spans="1:2">
+      <c r="C730" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
       <c r="A731" s="11" t="s">
         <v>679</v>
       </c>
       <c r="B731" s="20">
         <v>206540140</v>
       </c>
-    </row>
-    <row r="732" spans="1:2">
+      <c r="C731" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
       <c r="A732" s="16" t="s">
         <v>680</v>
       </c>
       <c r="B732" s="20">
         <v>18540240</v>
       </c>
-    </row>
-    <row r="733" spans="1:2">
+      <c r="C732" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
       <c r="A733" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B733" s="20">
         <v>206540201</v>
       </c>
-    </row>
-    <row r="734" spans="1:2">
+      <c r="C733" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
       <c r="A734" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B734" s="20">
         <v>206540202</v>
       </c>
-    </row>
-    <row r="735" spans="1:2">
+      <c r="C734" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
       <c r="A735" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B735" s="20">
         <v>206540203</v>
       </c>
-    </row>
-    <row r="736" spans="1:2">
+      <c r="C735" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
       <c r="A736" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B736" s="20">
         <v>206540204</v>
       </c>
-    </row>
-    <row r="737" spans="1:2">
+      <c r="C736" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
       <c r="A737" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B737" s="20">
         <v>206540205</v>
       </c>
-    </row>
-    <row r="738" spans="1:2">
+      <c r="C737" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
       <c r="A738" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B738" s="20">
         <v>206540206</v>
       </c>
-    </row>
-    <row r="739" spans="1:2">
+      <c r="C738" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3">
       <c r="A739" s="13" t="s">
         <v>682</v>
       </c>
       <c r="B739" s="20">
         <v>206540207</v>
       </c>
-    </row>
-    <row r="740" spans="1:2">
+      <c r="C739" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
       <c r="A740" s="13" t="s">
         <v>682</v>
       </c>
       <c r="B740" s="20">
         <v>206540208</v>
       </c>
-    </row>
-    <row r="741" spans="1:2">
+      <c r="C740" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3">
       <c r="A741" s="13" t="s">
         <v>682</v>
       </c>
       <c r="B741" s="20">
         <v>206540209</v>
       </c>
-    </row>
-    <row r="742" spans="1:2">
+      <c r="C741" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
       <c r="A742" s="13" t="s">
         <v>682</v>
       </c>
       <c r="B742" s="20">
         <v>206540210</v>
       </c>
-    </row>
-    <row r="743" spans="1:2">
+      <c r="C742" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3">
       <c r="A743" s="13" t="s">
         <v>682</v>
       </c>
       <c r="B743" s="20">
         <v>206540211</v>
       </c>
-    </row>
-    <row r="744" spans="1:2">
+      <c r="C743" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3">
       <c r="A744" s="13" t="s">
         <v>682</v>
       </c>
       <c r="B744" s="20">
         <v>206540212</v>
       </c>
-    </row>
-    <row r="745" spans="1:2">
+      <c r="C744" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3">
       <c r="A745" s="11" t="s">
         <v>683</v>
       </c>
       <c r="B745" s="20">
         <v>206540213</v>
       </c>
-    </row>
-    <row r="746" spans="1:2">
+      <c r="C745" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3">
       <c r="A746" s="11" t="s">
         <v>683</v>
       </c>
       <c r="B746" s="20">
         <v>206540214</v>
       </c>
-    </row>
-    <row r="747" spans="1:2">
+      <c r="C746" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3">
       <c r="A747" s="11" t="s">
         <v>683</v>
       </c>
       <c r="B747" s="20">
         <v>206540215</v>
       </c>
-    </row>
-    <row r="748" spans="1:2">
+      <c r="C747" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3">
       <c r="A748" s="11" t="s">
         <v>684</v>
       </c>
       <c r="B748" s="20">
         <v>206540216</v>
       </c>
-    </row>
-    <row r="749" spans="1:2">
+      <c r="C748" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3">
       <c r="A749" s="11" t="s">
         <v>684</v>
       </c>
       <c r="B749" s="20">
         <v>206540217</v>
       </c>
-    </row>
-    <row r="750" spans="1:2">
+      <c r="C749" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3">
       <c r="A750" s="11" t="s">
         <v>684</v>
       </c>
       <c r="B750" s="20">
         <v>206540218</v>
       </c>
-    </row>
-    <row r="751" spans="1:2">
+      <c r="C750" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3">
       <c r="A751" s="11" t="s">
         <v>684</v>
       </c>
       <c r="B751" s="20">
         <v>206540219</v>
       </c>
-    </row>
-    <row r="752" spans="1:2">
+      <c r="C751" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3">
       <c r="A752" s="11" t="s">
         <v>684</v>
       </c>
       <c r="B752" s="20">
         <v>206540220</v>
       </c>
-    </row>
-    <row r="753" spans="1:2">
+      <c r="C752" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3">
       <c r="A753" s="11" t="s">
         <v>684</v>
       </c>
       <c r="B753" s="20">
         <v>206540221</v>
       </c>
-    </row>
-    <row r="754" spans="1:2">
+      <c r="C753" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3">
       <c r="A754" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B754" s="20">
         <v>206540222</v>
       </c>
-    </row>
-    <row r="755" spans="1:2">
+      <c r="C754" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3">
       <c r="A755" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B755" s="20">
         <v>206540223</v>
       </c>
-    </row>
-    <row r="756" spans="1:2">
+      <c r="C755" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3">
       <c r="A756" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B756" s="20">
         <v>206540224</v>
       </c>
-    </row>
-    <row r="757" spans="1:2">
+      <c r="C756" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3">
       <c r="A757" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B757" s="20">
         <v>206540225</v>
       </c>
-    </row>
-    <row r="758" spans="1:2">
+      <c r="C757" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3">
       <c r="A758" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B758" s="20">
         <v>206540226</v>
       </c>
-    </row>
-    <row r="759" spans="1:2">
+      <c r="C758" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3">
       <c r="A759" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B759" s="20">
         <v>206540227</v>
       </c>
-    </row>
-    <row r="760" spans="1:2">
+      <c r="C759" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3">
       <c r="A760" s="16" t="s">
         <v>686</v>
       </c>
       <c r="B760" s="20">
         <v>206540228</v>
       </c>
-    </row>
-    <row r="761" spans="1:2">
+      <c r="C760" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3">
       <c r="A761" s="16" t="s">
         <v>686</v>
       </c>
       <c r="B761" s="20">
         <v>206540229</v>
       </c>
-    </row>
-    <row r="762" spans="1:2">
+      <c r="C761" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3">
       <c r="A762" s="16" t="s">
         <v>686</v>
       </c>
       <c r="B762" s="20">
         <v>206540230</v>
       </c>
-    </row>
-    <row r="763" spans="1:2">
+      <c r="C762" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3">
       <c r="A763" s="16" t="s">
         <v>686</v>
       </c>
       <c r="B763" s="20">
         <v>206540231</v>
       </c>
-    </row>
-    <row r="764" spans="1:2">
+      <c r="C763" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3">
       <c r="A764" s="16" t="s">
         <v>686</v>
       </c>
       <c r="B764" s="20">
         <v>206540232</v>
       </c>
-    </row>
-    <row r="765" spans="1:2">
+      <c r="C764" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3">
       <c r="A765" s="16" t="s">
         <v>686</v>
       </c>
       <c r="B765" s="20">
         <v>206540233</v>
       </c>
-    </row>
-    <row r="766" spans="1:2">
+      <c r="C765" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3">
       <c r="A766" s="16" t="s">
         <v>687</v>
       </c>
       <c r="B766" s="20">
         <v>206540234</v>
       </c>
-    </row>
-    <row r="767" spans="1:2">
+      <c r="C766" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3">
       <c r="A767" s="16" t="s">
         <v>687</v>
       </c>
       <c r="B767" s="20">
         <v>206540235</v>
       </c>
-    </row>
-    <row r="768" spans="1:2">
+      <c r="C767" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3">
       <c r="A768" s="16" t="s">
         <v>687</v>
       </c>
       <c r="B768" s="20">
         <v>206540236</v>
       </c>
-    </row>
-    <row r="769" spans="1:2">
+      <c r="C768" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3">
       <c r="A769" s="16" t="s">
         <v>687</v>
       </c>
       <c r="B769" s="20">
         <v>206540237</v>
       </c>
-    </row>
-    <row r="770" spans="1:2">
+      <c r="C769" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3">
       <c r="A770" s="16" t="s">
         <v>687</v>
       </c>
       <c r="B770" s="20">
         <v>206540238</v>
       </c>
-    </row>
-    <row r="771" spans="1:2">
+      <c r="C770" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3">
       <c r="A771" s="16" t="s">
         <v>687</v>
       </c>
       <c r="B771" s="20">
         <v>206540239</v>
       </c>
-    </row>
-    <row r="772" spans="1:2">
+      <c r="C771" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3">
       <c r="A772" s="16" t="s">
         <v>680</v>
       </c>
       <c r="B772" s="20">
         <v>206540240</v>
       </c>
-    </row>
-    <row r="773" spans="1:2">
+      <c r="C772" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3">
       <c r="A773" s="16" t="s">
         <v>680</v>
       </c>
       <c r="B773" s="20">
         <v>206540242</v>
       </c>
-    </row>
-    <row r="774" spans="1:2">
+      <c r="C773" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3">
       <c r="A774" s="16" t="s">
         <v>680</v>
       </c>
       <c r="B774" s="20">
         <v>206540243</v>
       </c>
-    </row>
-    <row r="775" spans="1:2">
+      <c r="C774" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3">
       <c r="A775" s="16" t="s">
         <v>680</v>
       </c>
       <c r="B775" s="20">
         <v>206540244</v>
       </c>
-    </row>
-    <row r="776" spans="1:2">
+      <c r="C775" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3">
       <c r="A776" s="16" t="s">
         <v>680</v>
       </c>
       <c r="B776" s="20">
         <v>206540245</v>
       </c>
-    </row>
-    <row r="777" spans="1:2">
+      <c r="C776" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3">
       <c r="A777" s="21" t="s">
         <v>672</v>
       </c>
       <c r="B777" s="21">
         <v>18210408</v>
       </c>
-    </row>
-    <row r="778" spans="1:2">
+      <c r="C777" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3">
       <c r="A778" s="21" t="s">
         <v>672</v>
       </c>
       <c r="B778" s="21">
         <v>18210814</v>
       </c>
-    </row>
-    <row r="779" ht="28.5" spans="1:2">
+      <c r="C778" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="779" ht="28.5" spans="1:3">
       <c r="A779" s="13" t="s">
         <v>443</v>
       </c>
       <c r="B779" s="12" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="780" ht="28.5" spans="1:2">
+      <c r="C779" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="780" ht="28.5" spans="1:3">
       <c r="A780" s="13" t="s">
         <v>689</v>
       </c>
       <c r="B780" s="12" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="781" ht="28.5" spans="1:2">
+      <c r="C780" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="781" ht="28.5" spans="1:3">
       <c r="A781" s="13" t="s">
         <v>673</v>
       </c>
       <c r="B781" s="12" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="782" ht="28.5" spans="1:2">
+      <c r="C781" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782" ht="28.5" spans="1:3">
       <c r="A782" s="13" t="s">
         <v>689</v>
       </c>
       <c r="B782" s="12" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="783" ht="28.5" spans="1:2">
+      <c r="C782" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="783" ht="28.5" spans="1:3">
       <c r="A783" s="11" t="s">
         <v>398</v>
       </c>
       <c r="B783" s="12" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="784" ht="28.5" spans="1:2">
+      <c r="C783" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="784" ht="28.5" spans="1:3">
       <c r="A784" s="11" t="s">
         <v>398</v>
       </c>
       <c r="B784" s="12" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="785" ht="28.5" spans="1:2">
+      <c r="C784" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785" ht="28.5" spans="1:3">
       <c r="A785" s="11" t="s">
         <v>398</v>
       </c>
       <c r="B785" s="12" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="786" ht="28.5" spans="1:2">
+      <c r="C785" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" ht="28.5" spans="1:3">
       <c r="A786" s="11" t="s">
         <v>296</v>
       </c>
       <c r="B786" s="12" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="787" ht="28.5" spans="1:2">
+      <c r="C786" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" ht="28.5" spans="1:3">
       <c r="A787" s="11" t="s">
         <v>398</v>
       </c>
       <c r="B787" s="12" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="788" ht="28.5" spans="1:2">
+      <c r="C787" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" ht="28.5" spans="1:3">
       <c r="A788" s="11" t="s">
         <v>398</v>
       </c>
       <c r="B788" s="12" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="789" ht="28.5" spans="1:2">
+      <c r="C788" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789" ht="28.5" spans="1:3">
       <c r="A789" s="11" t="s">
         <v>699</v>
       </c>
       <c r="B789" s="12" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="790" ht="28.5" spans="1:2">
+      <c r="C789" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" ht="28.5" spans="1:3">
       <c r="A790" s="11" t="s">
         <v>699</v>
       </c>
       <c r="B790" s="12" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="791" ht="28.5" spans="1:2">
+      <c r="C790" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="791" ht="28.5" spans="1:3">
       <c r="A791" s="11" t="s">
         <v>699</v>
       </c>
       <c r="B791" s="12" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="792" ht="28.5" spans="1:2">
+      <c r="C791" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" ht="28.5" spans="1:3">
       <c r="A792" s="11" t="s">
         <v>699</v>
       </c>
       <c r="B792" s="12" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="793" ht="28.5" spans="1:2">
+      <c r="C792" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793" ht="28.5" spans="1:3">
       <c r="A793" s="11" t="s">
         <v>699</v>
       </c>
       <c r="B793" s="12" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="794" ht="28.5" spans="1:2">
+      <c r="C793" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794" ht="28.5" spans="1:3">
       <c r="A794" s="11" t="s">
         <v>699</v>
       </c>
       <c r="B794" s="12" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="795" ht="28.5" spans="1:2">
+      <c r="C794" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795" ht="28.5" spans="1:3">
       <c r="A795" s="11" t="s">
         <v>706</v>
       </c>
       <c r="B795" s="12" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="796" ht="28.5" spans="1:2">
+      <c r="C795" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" ht="28.5" spans="1:3">
       <c r="A796" s="11" t="s">
         <v>706</v>
       </c>
       <c r="B796" s="12" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="797" ht="28.5" spans="1:2">
+      <c r="C796" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797" ht="28.5" spans="1:3">
       <c r="A797" s="11" t="s">
         <v>706</v>
       </c>
       <c r="B797" s="12" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="798" ht="28.5" spans="1:2">
+      <c r="C797" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" ht="28.5" spans="1:3">
       <c r="A798" s="11" t="s">
         <v>706</v>
       </c>
       <c r="B798" s="12" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="799" ht="28.5" spans="1:2">
+      <c r="C798" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" ht="28.5" spans="1:3">
       <c r="A799" s="11" t="s">
         <v>706</v>
       </c>
       <c r="B799" s="12" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="800" ht="28.5" spans="1:2">
+      <c r="C799" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800" ht="28.5" spans="1:3">
       <c r="A800" s="11" t="s">
         <v>706</v>
       </c>
       <c r="B800" s="12" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="801" ht="28.5" spans="1:2">
+      <c r="C800" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" ht="28.5" spans="1:3">
       <c r="A801" s="11" t="s">
         <v>713</v>
       </c>
       <c r="B801" s="12" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="802" ht="28.5" spans="1:2">
+      <c r="C801" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="802" ht="28.5" spans="1:3">
       <c r="A802" s="11" t="s">
         <v>713</v>
       </c>
       <c r="B802" s="12" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="803" ht="28.5" spans="1:2">
+      <c r="C802" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" ht="28.5" spans="1:3">
       <c r="A803" s="11" t="s">
         <v>713</v>
       </c>
       <c r="B803" s="12" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="804" ht="28.5" spans="1:2">
+      <c r="C803" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804" ht="28.5" spans="1:3">
       <c r="A804" s="11" t="s">
         <v>713</v>
       </c>
       <c r="B804" s="12" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="805" ht="28.5" spans="1:2">
+      <c r="C804" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805" ht="28.5" spans="1:3">
       <c r="A805" s="11" t="s">
         <v>713</v>
       </c>
       <c r="B805" s="12" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="806" ht="28.5" spans="1:2">
+      <c r="C805" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="806" ht="28.5" spans="1:3">
       <c r="A806" s="22" t="s">
         <v>719</v>
       </c>
       <c r="B806" s="12" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="807" ht="28.5" spans="1:2">
+      <c r="C806" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="807" ht="28.5" spans="1:3">
       <c r="A807" s="22" t="s">
         <v>719</v>
       </c>
       <c r="B807" s="12" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="808" ht="28.5" spans="1:2">
+      <c r="C807" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="808" ht="28.5" spans="1:3">
       <c r="A808" s="22" t="s">
         <v>719</v>
       </c>
       <c r="B808" s="12" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="809" ht="28.5" spans="1:2">
+      <c r="C808" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809" ht="28.5" spans="1:3">
       <c r="A809" s="22" t="s">
         <v>719</v>
       </c>
       <c r="B809" s="12" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="810" spans="1:2">
+      <c r="C809" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
       <c r="A810" s="11" t="s">
         <v>588</v>
       </c>
       <c r="B810" s="12" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="811" spans="1:2">
+      <c r="C810" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3">
       <c r="A811" s="11" t="s">
         <v>588</v>
       </c>
       <c r="B811" s="12" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="812" ht="28.5" spans="1:2">
+      <c r="C811" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812" ht="28.5" spans="1:3">
       <c r="A812" s="13" t="s">
         <v>689</v>
       </c>
       <c r="B812" s="12" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="813" ht="28.5" spans="1:2">
+      <c r="C812" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813" ht="28.5" spans="1:3">
       <c r="A813" s="13" t="s">
         <v>689</v>
       </c>
       <c r="B813" s="12" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="814" ht="28.5" spans="1:2">
+      <c r="C813" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814" ht="28.5" spans="1:3">
       <c r="A814" s="13" t="s">
         <v>689</v>
       </c>
       <c r="B814" s="12" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="815" ht="28.5" spans="1:2">
+      <c r="C814" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="815" ht="28.5" spans="1:3">
       <c r="A815" s="13" t="s">
         <v>689</v>
       </c>
       <c r="B815" s="12" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="816" ht="28.5" spans="1:2">
+      <c r="C815" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" ht="28.5" spans="1:3">
       <c r="A816" s="16" t="s">
         <v>730</v>
       </c>
       <c r="B816" s="12" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="817" ht="28.5" spans="1:2">
+      <c r="C816" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817" ht="28.5" spans="1:3">
       <c r="A817" s="16" t="s">
         <v>730</v>
       </c>
       <c r="B817" s="12" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="818" ht="28.5" spans="1:2">
+      <c r="C817" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818" ht="28.5" spans="1:3">
       <c r="A818" s="11" t="s">
         <v>733</v>
       </c>
       <c r="B818" s="12" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="819" ht="28.5" spans="1:2">
+      <c r="C818" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819" ht="28.5" spans="1:3">
       <c r="A819" s="11" t="s">
         <v>733</v>
       </c>
       <c r="B819" s="12" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="820" ht="28.5" spans="1:2">
+      <c r="C819" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820" ht="28.5" spans="1:3">
       <c r="A820" s="11" t="s">
         <v>733</v>
       </c>
       <c r="B820" s="12" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="821" ht="28.5" spans="1:2">
+      <c r="C820" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821" ht="28.5" spans="1:3">
       <c r="A821" s="11" t="s">
         <v>733</v>
       </c>
       <c r="B821" s="12" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="822" ht="28.5" spans="1:2">
+      <c r="C821" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822" ht="28.5" spans="1:3">
       <c r="A822" s="11" t="s">
         <v>733</v>
       </c>
       <c r="B822" s="12" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="823" ht="28.5" spans="1:2">
+      <c r="C822" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823" ht="28.5" spans="1:3">
       <c r="A823" s="11" t="s">
         <v>739</v>
       </c>
       <c r="B823" s="12" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="824" ht="28.5" spans="1:2">
+      <c r="C823" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" ht="28.5" spans="1:3">
       <c r="A824" s="11" t="s">
         <v>739</v>
       </c>
       <c r="B824" s="12" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="825" ht="28.5" spans="1:2">
+      <c r="C824" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="825" ht="28.5" spans="1:3">
       <c r="A825" s="11" t="s">
         <v>739</v>
       </c>
       <c r="B825" s="12" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="826" ht="28.5" spans="1:2">
+      <c r="C825" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826" ht="28.5" spans="1:3">
       <c r="A826" s="16" t="s">
         <v>730</v>
       </c>
       <c r="B826" s="12" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="827" ht="28.5" spans="1:2">
+      <c r="C826" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827" ht="28.5" spans="1:3">
       <c r="A827" s="11" t="s">
         <v>739</v>
       </c>
       <c r="B827" s="12" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="828" ht="28.5" spans="1:2">
+      <c r="C827" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="828" ht="28.5" spans="1:3">
       <c r="A828" s="11" t="s">
         <v>739</v>
       </c>
       <c r="B828" s="12" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="829" ht="28.5" spans="1:2">
+      <c r="C828" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="829" ht="28.5" spans="1:3">
       <c r="A829" s="11" t="s">
         <v>746</v>
       </c>
       <c r="B829" s="12" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="830" ht="28.5" spans="1:2">
+      <c r="C829" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="830" ht="28.5" spans="1:3">
       <c r="A830" s="11" t="s">
         <v>746</v>
       </c>
       <c r="B830" s="12" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="831" ht="28.5" spans="1:2">
+      <c r="C830" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831" ht="28.5" spans="1:3">
       <c r="A831" s="11" t="s">
         <v>746</v>
       </c>
       <c r="B831" s="12" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="832" ht="28.5" spans="1:2">
+      <c r="C831" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="832" ht="28.5" spans="1:3">
       <c r="A832" s="11" t="s">
         <v>746</v>
       </c>
       <c r="B832" s="12" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="833" ht="28.5" spans="1:2">
+      <c r="C832" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="833" ht="28.5" spans="1:3">
       <c r="A833" s="11" t="s">
         <v>746</v>
       </c>
       <c r="B833" s="12" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="834" ht="28.5" spans="1:2">
+      <c r="C833" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" ht="28.5" spans="1:3">
       <c r="A834" s="16" t="s">
         <v>752</v>
       </c>
       <c r="B834" s="12" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="835" ht="28.5" spans="1:2">
+      <c r="C834" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" ht="28.5" spans="1:3">
       <c r="A835" s="16" t="s">
         <v>752</v>
       </c>
       <c r="B835" s="12" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="836" ht="28.5" spans="1:2">
+      <c r="C835" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="836" ht="28.5" spans="1:3">
       <c r="A836" s="16" t="s">
         <v>752</v>
       </c>
       <c r="B836" s="12" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="837" ht="28.5" spans="1:2">
+      <c r="C836" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="837" ht="28.5" spans="1:3">
       <c r="A837" s="16" t="s">
         <v>752</v>
       </c>
       <c r="B837" s="12" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="838" ht="28.5" spans="1:2">
+      <c r="C837" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="838" ht="28.5" spans="1:3">
       <c r="A838" s="16" t="s">
         <v>752</v>
       </c>
       <c r="B838" s="12" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="839" ht="28.5" spans="1:2">
+      <c r="C838" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="839" ht="28.5" spans="1:3">
       <c r="A839" s="16" t="s">
         <v>758</v>
       </c>
       <c r="B839" s="12" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="840" ht="28.5" spans="1:2">
+      <c r="C839" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="840" ht="28.5" spans="1:3">
       <c r="A840" s="16" t="s">
         <v>758</v>
       </c>
       <c r="B840" s="12" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="841" ht="28.5" spans="1:2">
+      <c r="C840" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="841" ht="28.5" spans="1:3">
       <c r="A841" s="16" t="s">
         <v>758</v>
       </c>
       <c r="B841" s="12" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="842" ht="28.5" spans="1:2">
+      <c r="C841" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="842" ht="28.5" spans="1:3">
       <c r="A842" s="16" t="s">
         <v>758</v>
       </c>
       <c r="B842" s="12" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="843" ht="28.5" spans="1:2">
+      <c r="C842" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="843" ht="28.5" spans="1:3">
       <c r="A843" s="16" t="s">
         <v>758</v>
       </c>
       <c r="B843" s="12" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="844" ht="28.5" spans="1:2">
+      <c r="C843" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="844" ht="28.5" spans="1:3">
       <c r="A844" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B844" s="12" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="845" ht="28.5" spans="1:2">
+      <c r="C844" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="845" ht="28.5" spans="1:3">
       <c r="A845" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B845" s="12" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="846" ht="28.5" spans="1:2">
+      <c r="C845" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846" ht="28.5" spans="1:3">
       <c r="A846" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B846" s="12" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="847" ht="28.5" spans="1:2">
+      <c r="C846" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847" ht="28.5" spans="1:3">
       <c r="A847" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B847" s="12" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="848" ht="28.5" spans="1:2">
+      <c r="C847" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848" ht="28.5" spans="1:3">
       <c r="A848" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B848" s="12" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="849" ht="28.5" spans="1:2">
+      <c r="C848" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="849" ht="28.5" spans="1:3">
       <c r="A849" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B849" s="12" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="850" ht="28.5" spans="1:2">
+      <c r="C849" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="850" ht="28.5" spans="1:3">
       <c r="A850" s="11" t="s">
         <v>771</v>
       </c>
       <c r="B850" s="12" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="851" ht="28.5" spans="1:2">
+      <c r="C850" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="851" ht="28.5" spans="1:3">
       <c r="A851" s="11" t="s">
         <v>771</v>
       </c>
       <c r="B851" s="12" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="852" ht="28.5" spans="1:2">
+      <c r="C851" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="852" ht="28.5" spans="1:3">
       <c r="A852" s="11" t="s">
         <v>771</v>
       </c>
       <c r="B852" s="12" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="853" ht="28.5" spans="1:2">
+      <c r="C852" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="853" ht="28.5" spans="1:3">
       <c r="A853" s="11" t="s">
         <v>771</v>
       </c>
       <c r="B853" s="12" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="854" ht="28.5" spans="1:2">
+      <c r="C853" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="854" ht="28.5" spans="1:3">
       <c r="A854" s="11" t="s">
         <v>771</v>
       </c>
       <c r="B854" s="12" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="855" ht="28.5" spans="1:2">
+      <c r="C854" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="855" ht="28.5" spans="1:3">
       <c r="A855" s="11" t="s">
         <v>771</v>
       </c>
       <c r="B855" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="856" ht="28.5" spans="1:2">
+      <c r="C855" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="856" ht="28.5" spans="1:3">
       <c r="A856" s="11" t="s">
         <v>778</v>
       </c>
       <c r="B856" s="12" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="857" ht="28.5" spans="1:2">
+      <c r="C856" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="857" ht="28.5" spans="1:3">
       <c r="A857" s="11" t="s">
         <v>778</v>
       </c>
       <c r="B857" s="12" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="858" ht="28.5" spans="1:2">
+      <c r="C857" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="858" ht="28.5" spans="1:3">
       <c r="A858" s="11" t="s">
         <v>778</v>
       </c>
       <c r="B858" s="12" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="859" ht="28.5" spans="1:2">
+      <c r="C858" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="859" ht="28.5" spans="1:3">
       <c r="A859" s="11" t="s">
         <v>778</v>
       </c>
       <c r="B859" s="12" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="860" ht="28.5" spans="1:2">
+      <c r="C859" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="860" ht="28.5" spans="1:3">
       <c r="A860" s="11" t="s">
         <v>778</v>
       </c>
       <c r="B860" s="12" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="861" ht="28.5" spans="1:2">
+      <c r="C860" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="861" ht="28.5" spans="1:3">
       <c r="A861" s="11" t="s">
         <v>778</v>
       </c>
       <c r="B861" s="12" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="862" ht="28.5" spans="1:2">
+      <c r="C861" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" ht="28.5" spans="1:3">
       <c r="A862" s="11" t="s">
         <v>785</v>
       </c>
       <c r="B862" s="12" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="863" ht="28.5" spans="1:2">
+      <c r="C862" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863" ht="28.5" spans="1:3">
       <c r="A863" s="11" t="s">
         <v>785</v>
       </c>
       <c r="B863" s="12" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="864" ht="28.5" spans="1:2">
+      <c r="C863" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="864" ht="28.5" spans="1:3">
       <c r="A864" s="11" t="s">
         <v>785</v>
       </c>
       <c r="B864" s="12" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="865" ht="28.5" spans="1:2">
+      <c r="C864" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="865" ht="28.5" spans="1:3">
       <c r="A865" s="11" t="s">
         <v>785</v>
       </c>
       <c r="B865" s="12" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="866" ht="28.5" spans="1:2">
+      <c r="C865" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="866" ht="28.5" spans="1:3">
       <c r="A866" s="11" t="s">
         <v>785</v>
       </c>
       <c r="B866" s="12" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="867" ht="28.5" spans="1:2">
+      <c r="C866" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="867" ht="28.5" spans="1:3">
       <c r="A867" s="11" t="s">
         <v>785</v>
       </c>
       <c r="B867" s="12" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="868" ht="28.5" spans="1:2">
+      <c r="C867" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="868" ht="28.5" spans="1:3">
       <c r="A868" s="11" t="s">
         <v>792</v>
       </c>
       <c r="B868" s="12" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="869" ht="28.5" spans="1:2">
+      <c r="C868" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="869" ht="28.5" spans="1:3">
       <c r="A869" s="11" t="s">
         <v>792</v>
       </c>
       <c r="B869" s="12" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="870" ht="28.5" spans="1:2">
+      <c r="C869" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="870" ht="28.5" spans="1:3">
       <c r="A870" s="11" t="s">
         <v>792</v>
       </c>
       <c r="B870" s="12" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="871" ht="28.5" spans="1:2">
+      <c r="C870" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="871" ht="28.5" spans="1:3">
       <c r="A871" s="11" t="s">
         <v>792</v>
       </c>
       <c r="B871" s="12" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="872" ht="28.5" spans="1:2">
+      <c r="C871" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="872" ht="28.5" spans="1:3">
       <c r="A872" s="11" t="s">
         <v>792</v>
       </c>
       <c r="B872" s="12" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="873" ht="28.5" spans="1:2">
+      <c r="C872" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="873" ht="28.5" spans="1:3">
       <c r="A873" s="11" t="s">
         <v>792</v>
       </c>
       <c r="B873" s="12" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="874" ht="28.5" spans="1:2">
+      <c r="C873" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="874" ht="28.5" spans="1:3">
       <c r="A874" s="11" t="s">
         <v>799</v>
       </c>
       <c r="B874" s="12" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="875" ht="28.5" spans="1:2">
+      <c r="C874" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="875" ht="28.5" spans="1:3">
       <c r="A875" s="11" t="s">
         <v>799</v>
       </c>
       <c r="B875" s="12" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="876" ht="28.5" spans="1:2">
+      <c r="C875" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="876" ht="28.5" spans="1:3">
       <c r="A876" s="11" t="s">
         <v>799</v>
       </c>
       <c r="B876" s="12" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="877" ht="28.5" spans="1:2">
+      <c r="C876" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="877" ht="28.5" spans="1:3">
       <c r="A877" s="11" t="s">
         <v>799</v>
       </c>
       <c r="B877" s="12" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="878" ht="28.5" spans="1:2">
+      <c r="C877" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="878" ht="28.5" spans="1:3">
       <c r="A878" s="11" t="s">
         <v>799</v>
       </c>
       <c r="B878" s="12" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="879" ht="28.5" spans="1:2">
+      <c r="C878" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="879" ht="28.5" spans="1:3">
       <c r="A879" s="11" t="s">
         <v>799</v>
       </c>
       <c r="B879" s="12" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="880" ht="28.5" spans="1:2">
+      <c r="C879" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="880" ht="28.5" spans="1:3">
       <c r="A880" s="11" t="s">
         <v>683</v>
       </c>
       <c r="B880" s="12" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="881" ht="28.5" spans="1:2">
+      <c r="C880" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="881" ht="28.5" spans="1:3">
       <c r="A881" s="11" t="s">
         <v>683</v>
       </c>
       <c r="B881" s="12" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="882" ht="28.5" spans="1:2">
+      <c r="C881" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="882" ht="28.5" spans="1:3">
       <c r="A882" s="11" t="s">
         <v>683</v>
       </c>
       <c r="B882" s="12" t="s">
         <v>808</v>
+      </c>
+      <c r="C882" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
